--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1853.765848574335</v>
+        <v>2196.295762198968</v>
       </c>
       <c r="AB2" t="n">
-        <v>2536.404216396734</v>
+        <v>3005.068755571412</v>
       </c>
       <c r="AC2" t="n">
-        <v>2294.333357849504</v>
+        <v>2718.269211180051</v>
       </c>
       <c r="AD2" t="n">
-        <v>1853765.848574335</v>
+        <v>2196295.762198968</v>
       </c>
       <c r="AE2" t="n">
-        <v>2536404.216396734</v>
+        <v>3005068.755571412</v>
       </c>
       <c r="AF2" t="n">
         <v>2.324836760295612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2294333.357849504</v>
+        <v>2718269.211180051</v>
       </c>
     </row>
     <row r="3">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1167.466418343816</v>
+        <v>1402.323609024472</v>
       </c>
       <c r="AB3" t="n">
-        <v>1597.379058561347</v>
+        <v>1918.721028018619</v>
       </c>
       <c r="AC3" t="n">
-        <v>1444.927443147841</v>
+        <v>1735.600986046397</v>
       </c>
       <c r="AD3" t="n">
-        <v>1167466.418343816</v>
+        <v>1402323.609024472</v>
       </c>
       <c r="AE3" t="n">
-        <v>1597379.058561347</v>
+        <v>1918721.028018619</v>
       </c>
       <c r="AF3" t="n">
         <v>3.259571932292676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1444927.443147841</v>
+        <v>1735600.986046397</v>
       </c>
     </row>
     <row r="4">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1013.060727691209</v>
+        <v>1228.306710412388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1386.114380712139</v>
+        <v>1680.62343025382</v>
       </c>
       <c r="AC4" t="n">
-        <v>1253.825569640723</v>
+        <v>1520.227088840194</v>
       </c>
       <c r="AD4" t="n">
-        <v>1013060.727691209</v>
+        <v>1228306.710412388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1386114.380712139</v>
+        <v>1680623.43025382</v>
       </c>
       <c r="AF4" t="n">
         <v>3.618522171706027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.37962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1253825.569640724</v>
+        <v>1520227.088840194</v>
       </c>
     </row>
     <row r="5">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>944.6377273479836</v>
+        <v>1150.095188798814</v>
       </c>
       <c r="AB5" t="n">
-        <v>1292.495013032805</v>
+        <v>1573.610975933315</v>
       </c>
       <c r="AC5" t="n">
-        <v>1169.141103017098</v>
+        <v>1423.427752967115</v>
       </c>
       <c r="AD5" t="n">
-        <v>944637.7273479836</v>
+        <v>1150095.188798814</v>
       </c>
       <c r="AE5" t="n">
-        <v>1292495.013032805</v>
+        <v>1573610.975933315</v>
       </c>
       <c r="AF5" t="n">
         <v>3.814744686413664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.14583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1169141.103017098</v>
+        <v>1423427.752967115</v>
       </c>
     </row>
     <row r="6">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>896.9770524120446</v>
+        <v>1102.467668251798</v>
       </c>
       <c r="AB6" t="n">
-        <v>1227.283574944872</v>
+        <v>1508.444901142976</v>
       </c>
       <c r="AC6" t="n">
-        <v>1110.153353055449</v>
+        <v>1364.481036893605</v>
       </c>
       <c r="AD6" t="n">
-        <v>896977.0524120446</v>
+        <v>1102467.668251798</v>
       </c>
       <c r="AE6" t="n">
-        <v>1227283.574944872</v>
+        <v>1508444.901142976</v>
       </c>
       <c r="AF6" t="n">
         <v>3.935434415570402e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.88425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1110153.353055449</v>
+        <v>1364481.036893605</v>
       </c>
     </row>
     <row r="7">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>865.8498674354822</v>
+        <v>1071.306317856455</v>
       </c>
       <c r="AB7" t="n">
-        <v>1184.693987225457</v>
+        <v>1465.808566790312</v>
       </c>
       <c r="AC7" t="n">
-        <v>1071.628455813112</v>
+        <v>1325.913854451089</v>
       </c>
       <c r="AD7" t="n">
-        <v>865849.8674354822</v>
+        <v>1071306.317856455</v>
       </c>
       <c r="AE7" t="n">
-        <v>1184693.987225457</v>
+        <v>1465808.566790312</v>
       </c>
       <c r="AF7" t="n">
         <v>4.024527844846779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.99305555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1071628.455813112</v>
+        <v>1325913.854451089</v>
       </c>
     </row>
     <row r="8">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>852.4039124518298</v>
+        <v>1048.038687213531</v>
       </c>
       <c r="AB8" t="n">
-        <v>1166.296638423155</v>
+        <v>1433.972768049246</v>
       </c>
       <c r="AC8" t="n">
-        <v>1054.986924159661</v>
+        <v>1297.116419660045</v>
       </c>
       <c r="AD8" t="n">
-        <v>852403.9124518298</v>
+        <v>1048038.687213531</v>
       </c>
       <c r="AE8" t="n">
-        <v>1166296.638423155</v>
+        <v>1433972.768049246</v>
       </c>
       <c r="AF8" t="n">
         <v>4.079177239060448e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.47222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1054986.924159661</v>
+        <v>1297116.419660045</v>
       </c>
     </row>
     <row r="9">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>830.0244177924891</v>
+        <v>1025.726512361894</v>
       </c>
       <c r="AB9" t="n">
-        <v>1135.676026516622</v>
+        <v>1403.444266073554</v>
       </c>
       <c r="AC9" t="n">
-        <v>1027.288700477189</v>
+        <v>1269.501515065892</v>
       </c>
       <c r="AD9" t="n">
-        <v>830024.4177924891</v>
+        <v>1025726.512361894</v>
       </c>
       <c r="AE9" t="n">
-        <v>1135676.026516622</v>
+        <v>1403444.266073554</v>
       </c>
       <c r="AF9" t="n">
         <v>4.131250110966276e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.99768518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>1027288.700477189</v>
+        <v>1269501.515065892</v>
       </c>
     </row>
     <row r="10">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>820.3420931208118</v>
+        <v>1016.044187690217</v>
       </c>
       <c r="AB10" t="n">
-        <v>1122.428242746816</v>
+        <v>1390.196482303747</v>
       </c>
       <c r="AC10" t="n">
-        <v>1015.305266596992</v>
+        <v>1257.518081185694</v>
       </c>
       <c r="AD10" t="n">
-        <v>820342.0931208117</v>
+        <v>1016044.187690217</v>
       </c>
       <c r="AE10" t="n">
-        <v>1122428.242746816</v>
+        <v>1390196.482303747</v>
       </c>
       <c r="AF10" t="n">
         <v>4.163388836595653e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.69675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1015305.266596992</v>
+        <v>1257518.081185694</v>
       </c>
     </row>
     <row r="11">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>812.5489468118204</v>
+        <v>998.4293657219537</v>
       </c>
       <c r="AB11" t="n">
-        <v>1111.765316157503</v>
+        <v>1366.09510577567</v>
       </c>
       <c r="AC11" t="n">
-        <v>1005.659994755852</v>
+        <v>1235.716906206962</v>
       </c>
       <c r="AD11" t="n">
-        <v>812548.9468118204</v>
+        <v>998429.3657219537</v>
       </c>
       <c r="AE11" t="n">
-        <v>1111765.316157503</v>
+        <v>1366095.10577567</v>
       </c>
       <c r="AF11" t="n">
         <v>4.189154059674058e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.46527777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1005659.994755852</v>
+        <v>1235716.906206962</v>
       </c>
     </row>
     <row r="12">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>804.234114990002</v>
+        <v>990.1145339001355</v>
       </c>
       <c r="AB12" t="n">
-        <v>1100.388596434401</v>
+        <v>1354.718386052567</v>
       </c>
       <c r="AC12" t="n">
-        <v>995.3690531957956</v>
+        <v>1225.425964646906</v>
       </c>
       <c r="AD12" t="n">
-        <v>804234.114990002</v>
+        <v>990114.5339001354</v>
       </c>
       <c r="AE12" t="n">
-        <v>1100388.596434401</v>
+        <v>1354718.386052567</v>
       </c>
       <c r="AF12" t="n">
         <v>4.217088985748538e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.22222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>995369.0531957956</v>
+        <v>1225425.964646906</v>
       </c>
     </row>
     <row r="13">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>796.9098862890934</v>
+        <v>982.7903051992269</v>
       </c>
       <c r="AB13" t="n">
-        <v>1090.367263603652</v>
+        <v>1344.697053221819</v>
       </c>
       <c r="AC13" t="n">
-        <v>986.3041423053846</v>
+        <v>1216.361053756495</v>
       </c>
       <c r="AD13" t="n">
-        <v>796909.8862890934</v>
+        <v>982790.3051992268</v>
       </c>
       <c r="AE13" t="n">
-        <v>1090367.263603652</v>
+        <v>1344697.053221819</v>
       </c>
       <c r="AF13" t="n">
         <v>4.235260248340677e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>37.06018518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>986304.1423053846</v>
+        <v>1216361.053756495</v>
       </c>
     </row>
     <row r="14">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>779.5779186985518</v>
+        <v>965.5256574163895</v>
       </c>
       <c r="AB14" t="n">
-        <v>1066.652900913828</v>
+        <v>1321.074800462836</v>
       </c>
       <c r="AC14" t="n">
-        <v>964.8530451073601</v>
+        <v>1194.99327564679</v>
       </c>
       <c r="AD14" t="n">
-        <v>779577.9186985518</v>
+        <v>965525.6574163896</v>
       </c>
       <c r="AE14" t="n">
-        <v>1066652.900913828</v>
+        <v>1321074.800462836</v>
       </c>
       <c r="AF14" t="n">
         <v>4.254109543119089e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>37</v>
+        <v>36.89814814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>964853.0451073601</v>
+        <v>1194993.27564679</v>
       </c>
     </row>
     <row r="15">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>772.8290937363074</v>
+        <v>958.7768324541452</v>
       </c>
       <c r="AB15" t="n">
-        <v>1057.418860863341</v>
+        <v>1311.840760412349</v>
       </c>
       <c r="AC15" t="n">
-        <v>956.5002888792353</v>
+        <v>1186.640519418665</v>
       </c>
       <c r="AD15" t="n">
-        <v>772829.0937363075</v>
+        <v>958776.8324541452</v>
       </c>
       <c r="AE15" t="n">
-        <v>1057418.860863341</v>
+        <v>1311840.760412349</v>
       </c>
       <c r="AF15" t="n">
         <v>4.269975496277895e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>37</v>
+        <v>36.75925925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>956500.2888792353</v>
+        <v>1186640.519418665</v>
       </c>
     </row>
     <row r="16">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>765.1017304058403</v>
+        <v>951.0494691236781</v>
       </c>
       <c r="AB16" t="n">
-        <v>1046.845941447386</v>
+        <v>1301.267840996394</v>
       </c>
       <c r="AC16" t="n">
-        <v>946.9364340531531</v>
+        <v>1177.076664592583</v>
       </c>
       <c r="AD16" t="n">
-        <v>765101.7304058403</v>
+        <v>951049.4691236782</v>
       </c>
       <c r="AE16" t="n">
-        <v>1046845.941447386</v>
+        <v>1301267.840996394</v>
       </c>
       <c r="AF16" t="n">
         <v>4.278789914699454e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>37</v>
+        <v>36.67824074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>946936.4340531531</v>
+        <v>1177076.664592583</v>
       </c>
     </row>
     <row r="17">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>760.6811834479046</v>
+        <v>946.6289221657423</v>
       </c>
       <c r="AB17" t="n">
-        <v>1040.79755407877</v>
+        <v>1295.219453627779</v>
       </c>
       <c r="AC17" t="n">
-        <v>941.4652962860331</v>
+        <v>1171.605526825463</v>
       </c>
       <c r="AD17" t="n">
-        <v>760681.1834479045</v>
+        <v>946628.9221657424</v>
       </c>
       <c r="AE17" t="n">
-        <v>1040797.55407877</v>
+        <v>1295219.453627779</v>
       </c>
       <c r="AF17" t="n">
         <v>4.288011152432778e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>37</v>
+        <v>36.59722222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>941465.2962860331</v>
+        <v>1171605.526825463</v>
       </c>
     </row>
     <row r="18">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>757.4029059264259</v>
+        <v>943.3506446442638</v>
       </c>
       <c r="AB18" t="n">
-        <v>1036.312070146486</v>
+        <v>1290.733969695495</v>
       </c>
       <c r="AC18" t="n">
-        <v>937.4079006448301</v>
+        <v>1167.54813118426</v>
       </c>
       <c r="AD18" t="n">
-        <v>757402.9059264259</v>
+        <v>943350.6446442638</v>
       </c>
       <c r="AE18" t="n">
-        <v>1036312.070146486</v>
+        <v>1290733.969695495</v>
       </c>
       <c r="AF18" t="n">
         <v>4.297639209477866e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>37</v>
+        <v>36.5162037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>937407.9006448301</v>
+        <v>1167548.13118426</v>
       </c>
     </row>
     <row r="19">
@@ -6954,28 +6954,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>756.4903505070184</v>
+        <v>942.4380892248563</v>
       </c>
       <c r="AB19" t="n">
-        <v>1035.063471562549</v>
+        <v>1289.485371111557</v>
       </c>
       <c r="AC19" t="n">
-        <v>936.2784665573249</v>
+        <v>1166.418697096755</v>
       </c>
       <c r="AD19" t="n">
-        <v>756490.3505070184</v>
+        <v>942438.0892248563</v>
       </c>
       <c r="AE19" t="n">
-        <v>1035063.471562549</v>
+        <v>1289485.371111557</v>
       </c>
       <c r="AF19" t="n">
         <v>4.297096783728848e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>37</v>
+        <v>36.52777777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>936278.4665573249</v>
+        <v>1166418.697096755</v>
       </c>
     </row>
     <row r="20">
@@ -7060,28 +7060,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>758.2442318114075</v>
+        <v>944.1919705292454</v>
       </c>
       <c r="AB20" t="n">
-        <v>1037.463209338997</v>
+        <v>1291.885108888005</v>
       </c>
       <c r="AC20" t="n">
-        <v>938.4491767284412</v>
+        <v>1168.589407267871</v>
       </c>
       <c r="AD20" t="n">
-        <v>758244.2318114075</v>
+        <v>944191.9705292454</v>
       </c>
       <c r="AE20" t="n">
-        <v>1037463.209338997</v>
+        <v>1291885.108888005</v>
       </c>
       <c r="AF20" t="n">
         <v>4.295605112919045e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>37</v>
+        <v>36.53935185185185</v>
       </c>
       <c r="AH20" t="n">
-        <v>938449.1767284413</v>
+        <v>1168589.407267871</v>
       </c>
     </row>
   </sheetData>
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1454.738129771124</v>
+        <v>1745.053119047882</v>
       </c>
       <c r="AB2" t="n">
-        <v>1990.436887669645</v>
+        <v>2387.658663791503</v>
       </c>
       <c r="AC2" t="n">
-        <v>1800.47238470617</v>
+        <v>2159.783872019224</v>
       </c>
       <c r="AD2" t="n">
-        <v>1454738.129771124</v>
+        <v>1745053.119047882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1990436.887669645</v>
+        <v>2387658.663791503</v>
       </c>
       <c r="AF2" t="n">
         <v>2.908958676082007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.03935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1800472.384706171</v>
+        <v>2159783.872019223</v>
       </c>
     </row>
     <row r="3">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>992.7515377236596</v>
+        <v>1224.982221069912</v>
       </c>
       <c r="AB3" t="n">
-        <v>1358.326451020311</v>
+        <v>1676.074717269326</v>
       </c>
       <c r="AC3" t="n">
-        <v>1228.68968095808</v>
+        <v>1516.112498638781</v>
       </c>
       <c r="AD3" t="n">
-        <v>992751.5377236595</v>
+        <v>1224982.221069912</v>
       </c>
       <c r="AE3" t="n">
-        <v>1358326.451020311</v>
+        <v>1676074.717269326</v>
       </c>
       <c r="AF3" t="n">
         <v>3.818815069947596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.96527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1228689.68095808</v>
+        <v>1516112.498638781</v>
       </c>
     </row>
     <row r="4">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>888.3194778230663</v>
+        <v>1091.509524748852</v>
       </c>
       <c r="AB4" t="n">
-        <v>1215.437899446998</v>
+        <v>1493.451485763072</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.438212201581</v>
+        <v>1350.918572034169</v>
       </c>
       <c r="AD4" t="n">
-        <v>888319.4778230663</v>
+        <v>1091509.524748852</v>
       </c>
       <c r="AE4" t="n">
-        <v>1215437.899446998</v>
+        <v>1493451.485763072</v>
       </c>
       <c r="AF4" t="n">
         <v>4.162607839775803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.26157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>1099438.212201581</v>
+        <v>1350918.572034169</v>
       </c>
     </row>
     <row r="5">
@@ -7675,28 +7675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.454750817023</v>
+        <v>1027.065733819185</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.369559496402</v>
+        <v>1405.2766479537</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.534289256793</v>
+        <v>1271.159016991161</v>
       </c>
       <c r="AD5" t="n">
-        <v>833454.750817023</v>
+        <v>1027065.733819186</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140369.559496402</v>
+        <v>1405276.6479537</v>
       </c>
       <c r="AF5" t="n">
         <v>4.341107063816949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.56018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031534.289256793</v>
+        <v>1271159.016991161</v>
       </c>
     </row>
     <row r="6">
@@ -7781,28 +7781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>802.3369188133851</v>
+        <v>995.9137363967665</v>
       </c>
       <c r="AB6" t="n">
-        <v>1097.792768927165</v>
+        <v>1362.653110751216</v>
       </c>
       <c r="AC6" t="n">
-        <v>993.0209678225839</v>
+        <v>1232.603410356772</v>
       </c>
       <c r="AD6" t="n">
-        <v>802336.9188133851</v>
+        <v>995913.7363967665</v>
       </c>
       <c r="AE6" t="n">
-        <v>1097792.768927165</v>
+        <v>1362653.110751216</v>
       </c>
       <c r="AF6" t="n">
         <v>4.449274922774551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.59953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>993020.9678225839</v>
+        <v>1232603.410356772</v>
       </c>
     </row>
     <row r="7">
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>775.8377299190196</v>
+        <v>969.3803820836201</v>
       </c>
       <c r="AB7" t="n">
-        <v>1061.535409620188</v>
+        <v>1326.349004810992</v>
       </c>
       <c r="AC7" t="n">
-        <v>960.2239600003418</v>
+        <v>1199.76411733435</v>
       </c>
       <c r="AD7" t="n">
-        <v>775837.7299190196</v>
+        <v>969380.3820836202</v>
       </c>
       <c r="AE7" t="n">
-        <v>1061535.409620188</v>
+        <v>1326349.004810991</v>
       </c>
       <c r="AF7" t="n">
         <v>4.525986559374111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.93981481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>960223.9600003418</v>
+        <v>1199764.11733435</v>
       </c>
     </row>
     <row r="8">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>763.9894888598798</v>
+        <v>947.919922711934</v>
       </c>
       <c r="AB8" t="n">
-        <v>1045.324123495569</v>
+        <v>1296.985857530002</v>
       </c>
       <c r="AC8" t="n">
-        <v>945.5598562707725</v>
+        <v>1173.203347618422</v>
       </c>
       <c r="AD8" t="n">
-        <v>763989.4888598798</v>
+        <v>947919.922711934</v>
       </c>
       <c r="AE8" t="n">
-        <v>1045324.123495569</v>
+        <v>1296985.857530002</v>
       </c>
       <c r="AF8" t="n">
         <v>4.57569332583611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.53472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>945559.8562707724</v>
+        <v>1173203.347618422</v>
       </c>
     </row>
     <row r="9">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>751.893709826722</v>
+        <v>935.7226584522911</v>
       </c>
       <c r="AB9" t="n">
-        <v>1028.774144994293</v>
+        <v>1280.297022464637</v>
       </c>
       <c r="AC9" t="n">
-        <v>930.5893844896178</v>
+        <v>1158.107271548768</v>
       </c>
       <c r="AD9" t="n">
-        <v>751893.709826722</v>
+        <v>935722.658452291</v>
       </c>
       <c r="AE9" t="n">
-        <v>1028774.144994293</v>
+        <v>1280297.022464637</v>
       </c>
       <c r="AF9" t="n">
         <v>4.620206848040884e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.17592592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>930589.3844896178</v>
+        <v>1158107.271548768</v>
       </c>
     </row>
     <row r="10">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>733.2109663299234</v>
+        <v>917.1072347631966</v>
       </c>
       <c r="AB10" t="n">
-        <v>1003.211591117501</v>
+        <v>1254.826578518687</v>
       </c>
       <c r="AC10" t="n">
-        <v>907.466484877557</v>
+        <v>1135.067691025027</v>
       </c>
       <c r="AD10" t="n">
-        <v>733210.9663299234</v>
+        <v>917107.2347631967</v>
       </c>
       <c r="AE10" t="n">
-        <v>1003211.591117501</v>
+        <v>1254826.578518687</v>
       </c>
       <c r="AF10" t="n">
         <v>4.655224152175307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.88657407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>907466.484877557</v>
+        <v>1135067.691025027</v>
       </c>
     </row>
     <row r="11">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>721.9951994360033</v>
+        <v>905.8914678692767</v>
       </c>
       <c r="AB11" t="n">
-        <v>987.8656840485254</v>
+        <v>1239.480671449711</v>
       </c>
       <c r="AC11" t="n">
-        <v>893.585169641129</v>
+        <v>1121.186375788599</v>
       </c>
       <c r="AD11" t="n">
-        <v>721995.1994360033</v>
+        <v>905891.4678692766</v>
       </c>
       <c r="AE11" t="n">
-        <v>987865.6840485254</v>
+        <v>1239480.671449711</v>
       </c>
       <c r="AF11" t="n">
         <v>4.684603076830458e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.6550925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>893585.169641129</v>
+        <v>1121186.375788599</v>
       </c>
     </row>
     <row r="12">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>713.2104047060338</v>
+        <v>897.1066731393072</v>
       </c>
       <c r="AB12" t="n">
-        <v>975.8459403411902</v>
+        <v>1227.460927742376</v>
       </c>
       <c r="AC12" t="n">
-        <v>882.7125734034056</v>
+        <v>1110.313779550875</v>
       </c>
       <c r="AD12" t="n">
-        <v>713210.4047060339</v>
+        <v>897106.6731393072</v>
       </c>
       <c r="AE12" t="n">
-        <v>975845.9403411902</v>
+        <v>1227460.927742376</v>
       </c>
       <c r="AF12" t="n">
         <v>4.701073080046225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.52777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>882712.5734034056</v>
+        <v>1110313.779550875</v>
       </c>
     </row>
     <row r="13">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>708.8107558579251</v>
+        <v>892.6055390647132</v>
       </c>
       <c r="AB13" t="n">
-        <v>969.8261466883995</v>
+        <v>1221.302277525496</v>
       </c>
       <c r="AC13" t="n">
-        <v>877.2673004080036</v>
+        <v>1104.742902266974</v>
       </c>
       <c r="AD13" t="n">
-        <v>708810.755857925</v>
+        <v>892605.5390647132</v>
       </c>
       <c r="AE13" t="n">
-        <v>969826.1466883995</v>
+        <v>1221302.277525496</v>
       </c>
       <c r="AF13" t="n">
         <v>4.717543083261991e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.40046296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>877267.3004080036</v>
+        <v>1104742.902266974</v>
       </c>
     </row>
     <row r="14">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>710.7629284070501</v>
+        <v>894.5577116138384</v>
       </c>
       <c r="AB14" t="n">
-        <v>972.497195293887</v>
+        <v>1223.973326130983</v>
       </c>
       <c r="AC14" t="n">
-        <v>879.6834278834236</v>
+        <v>1107.159029742394</v>
       </c>
       <c r="AD14" t="n">
-        <v>710762.9284070501</v>
+        <v>894557.7116138383</v>
       </c>
       <c r="AE14" t="n">
-        <v>972497.1952938869</v>
+        <v>1223973.326130983</v>
       </c>
       <c r="AF14" t="n">
         <v>4.712646595819466e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>37</v>
+        <v>36.43518518518518</v>
       </c>
       <c r="AH14" t="n">
-        <v>879683.4278834236</v>
+        <v>1107159.029742394</v>
       </c>
     </row>
     <row r="15">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>712.4120228186737</v>
+        <v>896.2068060254618</v>
       </c>
       <c r="AB15" t="n">
-        <v>974.7535590207809</v>
+        <v>1226.229689857877</v>
       </c>
       <c r="AC15" t="n">
-        <v>881.7244474230495</v>
+        <v>1109.20004928202</v>
       </c>
       <c r="AD15" t="n">
-        <v>712412.0228186736</v>
+        <v>896206.8060254618</v>
       </c>
       <c r="AE15" t="n">
-        <v>974753.559020781</v>
+        <v>1226229.689857878</v>
       </c>
       <c r="AF15" t="n">
         <v>4.712794974226815e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>37</v>
+        <v>36.43518518518518</v>
       </c>
       <c r="AH15" t="n">
-        <v>881724.4474230495</v>
+        <v>1109200.04928202</v>
       </c>
     </row>
   </sheetData>
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>799.3381437860714</v>
+        <v>1014.378573154515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1093.689712638177</v>
+        <v>1387.917515014273</v>
       </c>
       <c r="AC2" t="n">
-        <v>989.3095014671413</v>
+        <v>1255.456615335777</v>
       </c>
       <c r="AD2" t="n">
-        <v>799338.1437860715</v>
+        <v>1014378.573154515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1093689.712638177</v>
+        <v>1387917.515014273</v>
       </c>
       <c r="AF2" t="n">
         <v>5.406659326921467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>989309.5014671413</v>
+        <v>1255456.615335777</v>
       </c>
     </row>
     <row r="3">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.9236245458205</v>
+        <v>839.9990939215701</v>
       </c>
       <c r="AB3" t="n">
-        <v>893.3589080609554</v>
+        <v>1149.323818448084</v>
       </c>
       <c r="AC3" t="n">
-        <v>808.0979877127195</v>
+        <v>1039.633966301509</v>
       </c>
       <c r="AD3" t="n">
-        <v>652923.6245458205</v>
+        <v>839999.0939215701</v>
       </c>
       <c r="AE3" t="n">
-        <v>893358.9080609553</v>
+        <v>1149323.818448084</v>
       </c>
       <c r="AF3" t="n">
         <v>6.192205133518154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.71527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>808097.9877127195</v>
+        <v>1039633.966301508</v>
       </c>
     </row>
     <row r="4">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>612.010579649997</v>
+        <v>789.6632474783156</v>
       </c>
       <c r="AB4" t="n">
-        <v>837.3798750783363</v>
+        <v>1080.452092683605</v>
       </c>
       <c r="AC4" t="n">
-        <v>757.4615150708954</v>
+        <v>977.3352613819169</v>
       </c>
       <c r="AD4" t="n">
-        <v>612010.5796499969</v>
+        <v>789663.2474783156</v>
       </c>
       <c r="AE4" t="n">
-        <v>837379.8750783363</v>
+        <v>1080452.092683605</v>
       </c>
       <c r="AF4" t="n">
         <v>6.454813117373835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.12962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>757461.5150708954</v>
+        <v>977335.2613819169</v>
       </c>
     </row>
     <row r="5">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>593.3228494624291</v>
+        <v>771.0428370984521</v>
       </c>
       <c r="AB5" t="n">
-        <v>811.8104981912363</v>
+        <v>1054.974825727346</v>
       </c>
       <c r="AC5" t="n">
-        <v>734.3324436270543</v>
+        <v>954.2895090263951</v>
       </c>
       <c r="AD5" t="n">
-        <v>593322.8494624291</v>
+        <v>771042.837098452</v>
       </c>
       <c r="AE5" t="n">
-        <v>811810.4981912363</v>
+        <v>1054974.825727346</v>
       </c>
       <c r="AF5" t="n">
         <v>6.528749276866328e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.71296296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>734332.4436270543</v>
+        <v>954289.509026395</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>595.537904520899</v>
+        <v>773.257892156922</v>
       </c>
       <c r="AB6" t="n">
-        <v>814.8412342435673</v>
+        <v>1058.005561779677</v>
       </c>
       <c r="AC6" t="n">
-        <v>737.0739304842156</v>
+        <v>957.0309958835563</v>
       </c>
       <c r="AD6" t="n">
-        <v>595537.9045208991</v>
+        <v>773257.892156922</v>
       </c>
       <c r="AE6" t="n">
-        <v>814841.2342435673</v>
+        <v>1058005.561779677</v>
       </c>
       <c r="AF6" t="n">
         <v>6.526471131895971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.72453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>737073.9304842156</v>
+        <v>957030.9958835563</v>
       </c>
     </row>
   </sheetData>
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.2764241409081</v>
+        <v>1224.3065119341</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.835159071427</v>
+        <v>1675.150182219525</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.913347398703</v>
+        <v>1515.27619991654</v>
       </c>
       <c r="AD2" t="n">
-        <v>987276.4241409082</v>
+        <v>1224306.5119341</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350835.159071427</v>
+        <v>1675150.182219525</v>
       </c>
       <c r="AF2" t="n">
         <v>4.25925083033526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.73842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221913.347398703</v>
+        <v>1515276.19991654</v>
       </c>
     </row>
     <row r="3">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>768.5853555129075</v>
+        <v>967.6851627921834</v>
       </c>
       <c r="AB3" t="n">
-        <v>1051.612391005568</v>
+        <v>1324.029530988651</v>
       </c>
       <c r="AC3" t="n">
-        <v>951.2479803552567</v>
+        <v>1197.666010838211</v>
       </c>
       <c r="AD3" t="n">
-        <v>768585.3555129075</v>
+        <v>967685.1627921835</v>
       </c>
       <c r="AE3" t="n">
-        <v>1051612.391005568</v>
+        <v>1324029.530988651</v>
       </c>
       <c r="AF3" t="n">
         <v>5.093775595096502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.75231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>951247.9803552567</v>
+        <v>1197666.010838211</v>
       </c>
     </row>
     <row r="4">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.60556585387</v>
+        <v>897.1213177781816</v>
       </c>
       <c r="AB4" t="n">
-        <v>968.1771525556208</v>
+        <v>1227.48096518336</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.7756839608796</v>
+        <v>1110.331904646614</v>
       </c>
       <c r="AD4" t="n">
-        <v>707605.56585387</v>
+        <v>897121.3177781816</v>
       </c>
       <c r="AE4" t="n">
-        <v>968177.1525556208</v>
+        <v>1227480.96518336</v>
       </c>
       <c r="AF4" t="n">
         <v>5.392755346408986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>875775.6839608797</v>
+        <v>1110331.904646614</v>
       </c>
     </row>
     <row r="5">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>673.2795399360643</v>
+        <v>853.3468871506778</v>
       </c>
       <c r="AB5" t="n">
-        <v>921.2107695374935</v>
+        <v>1167.586858007227</v>
       </c>
       <c r="AC5" t="n">
-        <v>833.29170662027</v>
+        <v>1056.154006997464</v>
       </c>
       <c r="AD5" t="n">
-        <v>673279.5399360644</v>
+        <v>853346.8871506779</v>
       </c>
       <c r="AE5" t="n">
-        <v>921210.7695374936</v>
+        <v>1167586.858007227</v>
       </c>
       <c r="AF5" t="n">
         <v>5.555248240643605e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.37268518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>833291.70662027</v>
+        <v>1056154.006997464</v>
       </c>
     </row>
     <row r="6">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>646.8825606207539</v>
+        <v>827.0172276430719</v>
       </c>
       <c r="AB6" t="n">
-        <v>885.0932578857485</v>
+        <v>1131.561456286323</v>
       </c>
       <c r="AC6" t="n">
-        <v>800.6211995893213</v>
+        <v>1023.566819054834</v>
       </c>
       <c r="AD6" t="n">
-        <v>646882.5606207539</v>
+        <v>827017.2276430719</v>
       </c>
       <c r="AE6" t="n">
-        <v>885093.2578857485</v>
+        <v>1131561.456286323</v>
       </c>
       <c r="AF6" t="n">
         <v>5.644027470937355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.78240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>800621.1995893214</v>
+        <v>1023566.819054834</v>
       </c>
     </row>
     <row r="7">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>634.4785735929553</v>
+        <v>814.5117553887881</v>
       </c>
       <c r="AB7" t="n">
-        <v>868.121575609028</v>
+        <v>1114.450917445513</v>
       </c>
       <c r="AC7" t="n">
-        <v>785.2692708491853</v>
+        <v>1008.089286026199</v>
       </c>
       <c r="AD7" t="n">
-        <v>634478.5735929552</v>
+        <v>814511.7553887881</v>
       </c>
       <c r="AE7" t="n">
-        <v>868121.575609028</v>
+        <v>1114450.917445513</v>
       </c>
       <c r="AF7" t="n">
         <v>5.691017689799904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.48148148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>785269.2708491853</v>
+        <v>1008089.286026199</v>
       </c>
     </row>
     <row r="8">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>636.346217612474</v>
+        <v>816.3793994083067</v>
       </c>
       <c r="AB8" t="n">
-        <v>870.6769685511726</v>
+        <v>1117.006310387658</v>
       </c>
       <c r="AC8" t="n">
-        <v>787.5807806754483</v>
+        <v>1010.400795852462</v>
       </c>
       <c r="AD8" t="n">
-        <v>636346.217612474</v>
+        <v>816379.3994083067</v>
       </c>
       <c r="AE8" t="n">
-        <v>870676.9685511726</v>
+        <v>1117006.310387658</v>
       </c>
       <c r="AF8" t="n">
         <v>5.687968706133251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.49305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>787580.7806754482</v>
+        <v>1010400.795852462</v>
       </c>
     </row>
   </sheetData>
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.1091934446338</v>
+        <v>867.3853004593547</v>
       </c>
       <c r="AB2" t="n">
-        <v>920.9776939527616</v>
+        <v>1186.794834427243</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.0808754422212</v>
+        <v>1073.528801106518</v>
       </c>
       <c r="AD2" t="n">
-        <v>673109.1934446337</v>
+        <v>867385.3004593547</v>
       </c>
       <c r="AE2" t="n">
-        <v>920977.6939527616</v>
+        <v>1186794.834427243</v>
       </c>
       <c r="AF2" t="n">
         <v>6.611502709692557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>833080.8754422212</v>
+        <v>1073528.801106518</v>
       </c>
     </row>
     <row r="3">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>576.2028867992967</v>
+        <v>751.9765074316631</v>
       </c>
       <c r="AB3" t="n">
-        <v>788.3862099960912</v>
+        <v>1028.887432330146</v>
       </c>
       <c r="AC3" t="n">
-        <v>713.1437366210588</v>
+        <v>930.6918598411366</v>
       </c>
       <c r="AD3" t="n">
-        <v>576202.8867992967</v>
+        <v>751976.5074316631</v>
       </c>
       <c r="AE3" t="n">
-        <v>788386.2099960912</v>
+        <v>1028887.432330146</v>
       </c>
       <c r="AF3" t="n">
         <v>7.311745103457354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.5462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>713143.7366210588</v>
+        <v>930691.8598411366</v>
       </c>
     </row>
     <row r="4">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>571.1817760812356</v>
+        <v>746.8539114871169</v>
       </c>
       <c r="AB4" t="n">
-        <v>781.5161047958688</v>
+        <v>1021.878470565834</v>
       </c>
       <c r="AC4" t="n">
-        <v>706.9293046188925</v>
+        <v>924.3518235504714</v>
       </c>
       <c r="AD4" t="n">
-        <v>571181.7760812356</v>
+        <v>746853.9114871168</v>
       </c>
       <c r="AE4" t="n">
-        <v>781516.1047958689</v>
+        <v>1021878.470565834</v>
       </c>
       <c r="AF4" t="n">
         <v>7.373419569032845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.2337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>706929.3046188925</v>
+        <v>924351.8235504715</v>
       </c>
     </row>
   </sheetData>
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.735462113377</v>
+        <v>1847.610766550521</v>
       </c>
       <c r="AB2" t="n">
-        <v>2116.311696416175</v>
+        <v>2527.982561628698</v>
       </c>
       <c r="AC2" t="n">
-        <v>1914.333878372335</v>
+        <v>2286.715453992663</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546735.462113377</v>
+        <v>1847610.766550521</v>
       </c>
       <c r="AE2" t="n">
-        <v>2116311.696416175</v>
+        <v>2527982.561628698</v>
       </c>
       <c r="AF2" t="n">
         <v>2.746886263629986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.00694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1914333.878372335</v>
+        <v>2286715.453992663</v>
       </c>
     </row>
     <row r="3">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1035.328635934158</v>
+        <v>1268.274593868439</v>
       </c>
       <c r="AB3" t="n">
-        <v>1416.58231516092</v>
+        <v>1735.309251656963</v>
       </c>
       <c r="AC3" t="n">
-        <v>1281.385687187728</v>
+        <v>1569.693772200653</v>
       </c>
       <c r="AD3" t="n">
-        <v>1035328.635934158</v>
+        <v>1268274.593868439</v>
       </c>
       <c r="AE3" t="n">
-        <v>1416582.31516092</v>
+        <v>1735309.251656963</v>
       </c>
       <c r="AF3" t="n">
         <v>3.664590398303269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.72916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1281385.687187728</v>
+        <v>1569693.772200653</v>
       </c>
     </row>
     <row r="4">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>914.5376095329544</v>
+        <v>1128.065710069582</v>
       </c>
       <c r="AB4" t="n">
-        <v>1251.310703914805</v>
+        <v>1543.46927126397</v>
       </c>
       <c r="AC4" t="n">
-        <v>1131.887366558778</v>
+        <v>1396.162730287263</v>
       </c>
       <c r="AD4" t="n">
-        <v>914537.6095329544</v>
+        <v>1128065.710069582</v>
       </c>
       <c r="AE4" t="n">
-        <v>1251310.703914805</v>
+        <v>1543469.27126397</v>
       </c>
       <c r="AF4" t="n">
         <v>4.009779205034274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.79398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1131887.366558778</v>
+        <v>1396162.730287263</v>
       </c>
     </row>
     <row r="5">
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>856.2922582432201</v>
+        <v>1060.111430081021</v>
       </c>
       <c r="AB5" t="n">
-        <v>1171.616844676645</v>
+        <v>1450.49122745237</v>
       </c>
       <c r="AC5" t="n">
-        <v>1059.799377395274</v>
+        <v>1312.058380481539</v>
       </c>
       <c r="AD5" t="n">
-        <v>856292.25824322</v>
+        <v>1060111.430081021</v>
       </c>
       <c r="AE5" t="n">
-        <v>1171616.844676645</v>
+        <v>1450491.22745237</v>
       </c>
       <c r="AF5" t="n">
         <v>4.193667537479063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.96527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1059799.377395274</v>
+        <v>1312058.380481539</v>
       </c>
     </row>
     <row r="6">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>822.785886049504</v>
+        <v>1016.930294607258</v>
       </c>
       <c r="AB6" t="n">
-        <v>1125.771948044387</v>
+        <v>1391.408892879922</v>
       </c>
       <c r="AC6" t="n">
-        <v>1018.329853353883</v>
+        <v>1258.614780998108</v>
       </c>
       <c r="AD6" t="n">
-        <v>822785.886049504</v>
+        <v>1016930.294607259</v>
       </c>
       <c r="AE6" t="n">
-        <v>1125771.948044387</v>
+        <v>1391408.892879922</v>
       </c>
       <c r="AF6" t="n">
         <v>4.310805853186018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.87731481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>1018329.853353883</v>
+        <v>1258614.780998108</v>
       </c>
     </row>
     <row r="7">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>806.6903972451845</v>
+        <v>991.0927227151888</v>
       </c>
       <c r="AB7" t="n">
-        <v>1103.749390179466</v>
+        <v>1356.056787143968</v>
       </c>
       <c r="AC7" t="n">
-        <v>998.4090975027361</v>
+        <v>1226.636630616601</v>
       </c>
       <c r="AD7" t="n">
-        <v>806690.3972451845</v>
+        <v>991092.7227151887</v>
       </c>
       <c r="AE7" t="n">
-        <v>1103749.390179466</v>
+        <v>1356056.787143968</v>
       </c>
       <c r="AF7" t="n">
         <v>4.385664331826928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.2175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>998409.0975027361</v>
+        <v>1226636.630616601</v>
       </c>
     </row>
     <row r="8">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>782.8430752707401</v>
+        <v>976.9533184097137</v>
       </c>
       <c r="AB8" t="n">
-        <v>1071.120432184437</v>
+        <v>1336.710630386724</v>
       </c>
       <c r="AC8" t="n">
-        <v>968.8942014637222</v>
+        <v>1209.136843907767</v>
       </c>
       <c r="AD8" t="n">
-        <v>782843.0752707401</v>
+        <v>976953.3184097137</v>
       </c>
       <c r="AE8" t="n">
-        <v>1071120.432184437</v>
+        <v>1336710.630386724</v>
       </c>
       <c r="AF8" t="n">
         <v>4.444305886661684e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>968894.2014637222</v>
+        <v>1209136.843907767</v>
       </c>
     </row>
     <row r="9">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>771.4351320826106</v>
+        <v>955.803292133834</v>
       </c>
       <c r="AB9" t="n">
-        <v>1055.511581031505</v>
+        <v>1307.772231362759</v>
       </c>
       <c r="AC9" t="n">
-        <v>954.7750371576657</v>
+        <v>1182.960285071351</v>
       </c>
       <c r="AD9" t="n">
-        <v>771435.1320826106</v>
+        <v>955803.292133834</v>
       </c>
       <c r="AE9" t="n">
-        <v>1055511.581031505</v>
+        <v>1307772.231362759</v>
       </c>
       <c r="AF9" t="n">
         <v>4.487020105615395e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.34953703703705</v>
       </c>
       <c r="AH9" t="n">
-        <v>954775.0371576657</v>
+        <v>1182960.285071351</v>
       </c>
     </row>
     <row r="10">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>762.5251050902897</v>
+        <v>946.8932651415132</v>
       </c>
       <c r="AB10" t="n">
-        <v>1043.320489017963</v>
+        <v>1295.581139349217</v>
       </c>
       <c r="AC10" t="n">
-        <v>943.7474458555912</v>
+        <v>1171.932693769277</v>
       </c>
       <c r="AD10" t="n">
-        <v>762525.1050902897</v>
+        <v>946893.2651415132</v>
       </c>
       <c r="AE10" t="n">
-        <v>1043320.489017963</v>
+        <v>1295581.139349217</v>
       </c>
       <c r="AF10" t="n">
         <v>4.521481068703473e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.06018518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>943747.4458555912</v>
+        <v>1171932.693769277</v>
       </c>
     </row>
     <row r="11">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>742.7593233393214</v>
+        <v>927.1948031982492</v>
       </c>
       <c r="AB11" t="n">
-        <v>1016.27607442154</v>
+        <v>1268.628834683636</v>
       </c>
       <c r="AC11" t="n">
-        <v>919.2841122311768</v>
+        <v>1147.552679233181</v>
       </c>
       <c r="AD11" t="n">
-        <v>742759.3233393214</v>
+        <v>927194.8031982492</v>
       </c>
       <c r="AE11" t="n">
-        <v>1016276.07442154</v>
+        <v>1268628.834683636</v>
       </c>
       <c r="AF11" t="n">
         <v>4.549860685364243e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.8287037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>919284.1122311768</v>
+        <v>1147552.679233181</v>
       </c>
     </row>
     <row r="12">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>734.9859697970089</v>
+        <v>919.4214496559366</v>
       </c>
       <c r="AB12" t="n">
-        <v>1005.640229168794</v>
+        <v>1257.992989430889</v>
       </c>
       <c r="AC12" t="n">
-        <v>909.6633371218494</v>
+        <v>1137.931904123854</v>
       </c>
       <c r="AD12" t="n">
-        <v>734985.9697970089</v>
+        <v>919421.4496559366</v>
       </c>
       <c r="AE12" t="n">
-        <v>1005640.229168794</v>
+        <v>1257992.989430889</v>
       </c>
       <c r="AF12" t="n">
         <v>4.567525548795948e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.68981481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>909663.3371218494</v>
+        <v>1137931.904123854</v>
       </c>
     </row>
     <row r="13">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>728.1552072059292</v>
+        <v>912.590687064857</v>
       </c>
       <c r="AB13" t="n">
-        <v>996.294078439701</v>
+        <v>1248.646838701796</v>
       </c>
       <c r="AC13" t="n">
-        <v>901.2091699009366</v>
+        <v>1129.477736902941</v>
       </c>
       <c r="AD13" t="n">
-        <v>728155.2072059292</v>
+        <v>912590.687064857</v>
       </c>
       <c r="AE13" t="n">
-        <v>996294.078439701</v>
+        <v>1248646.838701796</v>
       </c>
       <c r="AF13" t="n">
         <v>4.583597678639547e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.5625</v>
       </c>
       <c r="AH13" t="n">
-        <v>901209.1699009365</v>
+        <v>1129477.736902941</v>
       </c>
     </row>
     <row r="14">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>722.6773571656161</v>
+        <v>907.0113517980585</v>
       </c>
       <c r="AB14" t="n">
-        <v>988.7990423488565</v>
+        <v>1241.012946046863</v>
       </c>
       <c r="AC14" t="n">
-        <v>894.429449535253</v>
+        <v>1122.572412248758</v>
       </c>
       <c r="AD14" t="n">
-        <v>722677.357165616</v>
+        <v>907011.3517980585</v>
       </c>
       <c r="AE14" t="n">
-        <v>988799.0423488565</v>
+        <v>1241012.946046863</v>
       </c>
       <c r="AF14" t="n">
         <v>4.593878049980949e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>37</v>
+        <v>36.48148148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>894429.449535253</v>
+        <v>1122572.412248758</v>
       </c>
     </row>
     <row r="15">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>720.5532371324895</v>
+        <v>904.8872317649319</v>
       </c>
       <c r="AB15" t="n">
-        <v>985.8927276099706</v>
+        <v>1238.106631307977</v>
       </c>
       <c r="AC15" t="n">
-        <v>891.800509396008</v>
+        <v>1119.943472109513</v>
       </c>
       <c r="AD15" t="n">
-        <v>720553.2371324894</v>
+        <v>904887.2317649319</v>
       </c>
       <c r="AE15" t="n">
-        <v>985892.7276099706</v>
+        <v>1238106.631307977</v>
       </c>
       <c r="AF15" t="n">
         <v>4.602420893771691e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>37</v>
+        <v>36.41203703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>891800.509396008</v>
+        <v>1119943.472109513</v>
       </c>
     </row>
   </sheetData>
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>601.892047877689</v>
+        <v>794.803602665826</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.5352535093481</v>
+        <v>1087.485353427622</v>
       </c>
       <c r="AC2" t="n">
-        <v>744.9382047534028</v>
+        <v>983.6972775917686</v>
       </c>
       <c r="AD2" t="n">
-        <v>601892.047877689</v>
+        <v>794803.602665826</v>
       </c>
       <c r="AE2" t="n">
-        <v>823535.253509348</v>
+        <v>1087485.353427622</v>
       </c>
       <c r="AF2" t="n">
         <v>7.512699190636374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.98842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>744938.2047534029</v>
+        <v>983697.2775917687</v>
       </c>
     </row>
     <row r="3">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.0370542015257</v>
+        <v>734.7590906265342</v>
       </c>
       <c r="AB3" t="n">
-        <v>753.9532075976433</v>
+        <v>1005.329803078547</v>
       </c>
       <c r="AC3" t="n">
-        <v>681.9969716444963</v>
+        <v>909.3825376619703</v>
       </c>
       <c r="AD3" t="n">
-        <v>551037.0542015258</v>
+        <v>734759.0906265342</v>
       </c>
       <c r="AE3" t="n">
-        <v>753953.2075976434</v>
+        <v>1005329.803078547</v>
       </c>
       <c r="AF3" t="n">
         <v>7.966394066616074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>681996.9716444963</v>
+        <v>909382.5376619704</v>
       </c>
     </row>
     <row r="4">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.0729088887517</v>
+        <v>736.7949453137601</v>
       </c>
       <c r="AB4" t="n">
-        <v>756.7387537962758</v>
+        <v>1008.11534927718</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.5166692234699</v>
+        <v>911.902235240944</v>
       </c>
       <c r="AD4" t="n">
-        <v>553072.9088887518</v>
+        <v>736794.9453137601</v>
       </c>
       <c r="AE4" t="n">
-        <v>756738.7537962758</v>
+        <v>1008115.34927718</v>
       </c>
       <c r="AF4" t="n">
         <v>7.966913168304837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.70833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>684516.6692234699</v>
+        <v>911902.2352409441</v>
       </c>
     </row>
   </sheetData>
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1202.519743392153</v>
+        <v>1470.927838495197</v>
       </c>
       <c r="AB2" t="n">
-        <v>1645.34056433604</v>
+        <v>2012.588361385462</v>
       </c>
       <c r="AC2" t="n">
-        <v>1488.311570125794</v>
+        <v>1820.509752860338</v>
       </c>
       <c r="AD2" t="n">
-        <v>1202519.743392153</v>
+        <v>1470927.838495197</v>
       </c>
       <c r="AE2" t="n">
-        <v>1645340.564336041</v>
+        <v>2012588.361385462</v>
       </c>
       <c r="AF2" t="n">
         <v>3.484484214756165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.58796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1488311.570125794</v>
+        <v>1820509.752860338</v>
       </c>
     </row>
     <row r="3">
@@ -13485,28 +13485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>879.1807339261272</v>
+        <v>1090.092331746393</v>
       </c>
       <c r="AB3" t="n">
-        <v>1202.93386687428</v>
+        <v>1491.512419774966</v>
       </c>
       <c r="AC3" t="n">
-        <v>1088.127546948084</v>
+        <v>1349.164567782472</v>
       </c>
       <c r="AD3" t="n">
-        <v>879180.7339261272</v>
+        <v>1090092.331746394</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202933.86687428</v>
+        <v>1491512.419774967</v>
       </c>
       <c r="AF3" t="n">
         <v>4.365890764981332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.77777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1088127.546948084</v>
+        <v>1349164.567782471</v>
       </c>
     </row>
     <row r="4">
@@ -13591,28 +13591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>793.2089576222623</v>
+        <v>994.4979462401548</v>
       </c>
       <c r="AB4" t="n">
-        <v>1085.303489728244</v>
+        <v>1360.715964198686</v>
       </c>
       <c r="AC4" t="n">
-        <v>981.7236479015944</v>
+        <v>1230.851142352413</v>
       </c>
       <c r="AD4" t="n">
-        <v>793208.9576222623</v>
+        <v>994497.9462401548</v>
       </c>
       <c r="AE4" t="n">
-        <v>1085303.489728244</v>
+        <v>1360715.964198686</v>
       </c>
       <c r="AF4" t="n">
         <v>4.689541055984752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.81481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>981723.6479015944</v>
+        <v>1230851.142352413</v>
       </c>
     </row>
     <row r="5">
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>754.6344197587941</v>
+        <v>946.2676447853891</v>
       </c>
       <c r="AB5" t="n">
-        <v>1032.524105234942</v>
+        <v>1294.725137977546</v>
       </c>
       <c r="AC5" t="n">
-        <v>933.981453788002</v>
+        <v>1171.158387967112</v>
       </c>
       <c r="AD5" t="n">
-        <v>754634.4197587941</v>
+        <v>946267.6447853891</v>
       </c>
       <c r="AE5" t="n">
-        <v>1032524.105234943</v>
+        <v>1294725.137977546</v>
       </c>
       <c r="AF5" t="n">
         <v>4.857981187494009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>933981.453788002</v>
+        <v>1171158.387967112</v>
       </c>
     </row>
     <row r="6">
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>727.1355215667593</v>
+        <v>918.8360664010588</v>
       </c>
       <c r="AB6" t="n">
-        <v>994.8988995628333</v>
+        <v>1257.192042236278</v>
       </c>
       <c r="AC6" t="n">
-        <v>899.9471449379313</v>
+        <v>1137.207398205361</v>
       </c>
       <c r="AD6" t="n">
-        <v>727135.5215667593</v>
+        <v>918836.0664010588</v>
       </c>
       <c r="AE6" t="n">
-        <v>994898.8995628334</v>
+        <v>1257192.042236278</v>
       </c>
       <c r="AF6" t="n">
         <v>4.95688329536295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.67361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>899947.1449379313</v>
+        <v>1137207.39820536</v>
       </c>
     </row>
     <row r="7">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.4740501756319</v>
+        <v>894.5529968374145</v>
       </c>
       <c r="AB7" t="n">
-        <v>974.8384275870251</v>
+        <v>1223.966875165879</v>
       </c>
       <c r="AC7" t="n">
-        <v>881.8012162524449</v>
+        <v>1107.153194448345</v>
       </c>
       <c r="AD7" t="n">
-        <v>712474.0501756319</v>
+        <v>894552.9968374146</v>
       </c>
       <c r="AE7" t="n">
-        <v>974838.4275870251</v>
+        <v>1223966.875165879</v>
       </c>
       <c r="AF7" t="n">
         <v>5.029002776957432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.12962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>881801.2162524449</v>
+        <v>1107153.194448345</v>
       </c>
     </row>
     <row r="8">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>690.3609411658384</v>
+        <v>872.5072076353255</v>
       </c>
       <c r="AB8" t="n">
-        <v>944.5822962783079</v>
+        <v>1193.802853788004</v>
       </c>
       <c r="AC8" t="n">
-        <v>854.4326876510847</v>
+        <v>1079.867984935304</v>
       </c>
       <c r="AD8" t="n">
-        <v>690360.9411658384</v>
+        <v>872507.2076353255</v>
       </c>
       <c r="AE8" t="n">
-        <v>944582.2962783079</v>
+        <v>1193802.853788004</v>
       </c>
       <c r="AF8" t="n">
         <v>5.07853450145297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>854432.6876510847</v>
+        <v>1079867.984935304</v>
       </c>
     </row>
     <row r="9">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>679.0010928762632</v>
+        <v>861.1473593457504</v>
       </c>
       <c r="AB9" t="n">
-        <v>929.0392506873748</v>
+        <v>1178.25980819707</v>
       </c>
       <c r="AC9" t="n">
-        <v>840.3730485165487</v>
+        <v>1065.808345800768</v>
       </c>
       <c r="AD9" t="n">
-        <v>679001.0928762632</v>
+        <v>861147.3593457504</v>
       </c>
       <c r="AE9" t="n">
-        <v>929039.2506873747</v>
+        <v>1178259.80819707</v>
       </c>
       <c r="AF9" t="n">
         <v>5.115158936177685e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.50462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>840373.0485165487</v>
+        <v>1065808.345800768</v>
       </c>
     </row>
     <row r="10">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>673.6643707825534</v>
+        <v>855.7091520255553</v>
       </c>
       <c r="AB10" t="n">
-        <v>921.7373120791987</v>
+        <v>1170.819013024805</v>
       </c>
       <c r="AC10" t="n">
-        <v>833.7679966808018</v>
+        <v>1059.077689676522</v>
       </c>
       <c r="AD10" t="n">
-        <v>673664.3707825535</v>
+        <v>855709.1520255554</v>
       </c>
       <c r="AE10" t="n">
-        <v>921737.3120791987</v>
+        <v>1170819.013024805</v>
       </c>
       <c r="AF10" t="n">
         <v>5.13419718858965e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.36574074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>833767.9966808019</v>
+        <v>1059077.689676522</v>
       </c>
     </row>
     <row r="11">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>672.8516664607563</v>
+        <v>854.8964477037582</v>
       </c>
       <c r="AB11" t="n">
-        <v>920.6253341721317</v>
+        <v>1169.707035117738</v>
       </c>
       <c r="AC11" t="n">
-        <v>832.7621443845145</v>
+        <v>1058.071837380235</v>
       </c>
       <c r="AD11" t="n">
-        <v>672851.6664607563</v>
+        <v>854896.4477037583</v>
       </c>
       <c r="AE11" t="n">
-        <v>920625.3341721317</v>
+        <v>1169707.035117738</v>
       </c>
       <c r="AF11" t="n">
         <v>5.133067800734704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.37731481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>832762.1443845145</v>
+        <v>1058071.837380235</v>
       </c>
     </row>
   </sheetData>
@@ -14630,28 +14630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1367.098189988119</v>
+        <v>1646.878327331102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1870.524055657271</v>
+        <v>2253.331582598473</v>
       </c>
       <c r="AC2" t="n">
-        <v>1692.003865082341</v>
+        <v>2038.276778926013</v>
       </c>
       <c r="AD2" t="n">
-        <v>1367098.189988119</v>
+        <v>1646878.327331102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1870524.055657271</v>
+        <v>2253331.582598473</v>
       </c>
       <c r="AF2" t="n">
         <v>3.084366364030877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.1412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1692003.865082341</v>
+        <v>2038276.778926013</v>
       </c>
     </row>
     <row r="3">
@@ -14736,28 +14736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>960.8248454644189</v>
+        <v>1173.081515192173</v>
       </c>
       <c r="AB3" t="n">
-        <v>1314.642942164963</v>
+        <v>1605.061881789859</v>
       </c>
       <c r="AC3" t="n">
-        <v>1189.175264877696</v>
+        <v>1451.877028510334</v>
       </c>
       <c r="AD3" t="n">
-        <v>960824.8454644189</v>
+        <v>1173081.515192173</v>
       </c>
       <c r="AE3" t="n">
-        <v>1314642.942164963</v>
+        <v>1605061.881789859</v>
       </c>
       <c r="AF3" t="n">
         <v>3.986238561127152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1189175.264877696</v>
+        <v>1451877.028510334</v>
       </c>
     </row>
     <row r="4">
@@ -14842,28 +14842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>852.5822859028005</v>
+        <v>1055.221019586049</v>
       </c>
       <c r="AB4" t="n">
-        <v>1166.540696848054</v>
+        <v>1443.799952063466</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.207689991026</v>
+        <v>1306.005711024487</v>
       </c>
       <c r="AD4" t="n">
-        <v>852582.2859028005</v>
+        <v>1055221.019586049</v>
       </c>
       <c r="AE4" t="n">
-        <v>1166540.696848054</v>
+        <v>1443799.952063466</v>
       </c>
       <c r="AF4" t="n">
         <v>4.326306209914045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055207.689991026</v>
+        <v>1306005.711024487</v>
       </c>
     </row>
     <row r="5">
@@ -14948,28 +14948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>810.3583387912055</v>
+        <v>1003.278662233319</v>
       </c>
       <c r="AB5" t="n">
-        <v>1108.768029620893</v>
+        <v>1372.730127198383</v>
       </c>
       <c r="AC5" t="n">
-        <v>1002.948765039577</v>
+        <v>1241.718690497403</v>
       </c>
       <c r="AD5" t="n">
-        <v>810358.3387912054</v>
+        <v>1003278.662233319</v>
       </c>
       <c r="AE5" t="n">
-        <v>1108768.029620893</v>
+        <v>1372730.127198383</v>
       </c>
       <c r="AF5" t="n">
         <v>4.499309724926097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.17824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1002948.765039577</v>
+        <v>1241718.690497403</v>
       </c>
     </row>
     <row r="6">
@@ -15054,28 +15054,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>780.8298152459547</v>
+        <v>973.7159732692875</v>
       </c>
       <c r="AB6" t="n">
-        <v>1068.365800999762</v>
+        <v>1332.281151944005</v>
       </c>
       <c r="AC6" t="n">
-        <v>966.4024684131634</v>
+        <v>1205.130108670809</v>
       </c>
       <c r="AD6" t="n">
-        <v>780829.8152459547</v>
+        <v>973715.9732692875</v>
       </c>
       <c r="AE6" t="n">
-        <v>1068365.800999762</v>
+        <v>1332281.151944005</v>
       </c>
       <c r="AF6" t="n">
         <v>4.602258999704393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.29861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>966402.4684131634</v>
+        <v>1205130.108670809</v>
       </c>
     </row>
     <row r="7">
@@ -15160,28 +15160,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>755.5847536187091</v>
+        <v>948.5382314497465</v>
       </c>
       <c r="AB7" t="n">
-        <v>1033.824393947849</v>
+        <v>1297.831854822934</v>
       </c>
       <c r="AC7" t="n">
-        <v>935.1576447711157</v>
+        <v>1173.968604117081</v>
       </c>
       <c r="AD7" t="n">
-        <v>755584.753618709</v>
+        <v>948538.2314497465</v>
       </c>
       <c r="AE7" t="n">
-        <v>1033824.393947849</v>
+        <v>1297831.854822934</v>
       </c>
       <c r="AF7" t="n">
         <v>4.680384706747689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.66203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>935157.6447711156</v>
+        <v>1173968.604117081</v>
       </c>
     </row>
     <row r="8">
@@ -15266,28 +15266,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>742.4421068330788</v>
+        <v>925.7113398417625</v>
       </c>
       <c r="AB8" t="n">
-        <v>1015.842044803095</v>
+        <v>1266.599094673506</v>
       </c>
       <c r="AC8" t="n">
-        <v>918.8915057903509</v>
+        <v>1145.716654760861</v>
       </c>
       <c r="AD8" t="n">
-        <v>742442.1068330788</v>
+        <v>925711.3398417626</v>
       </c>
       <c r="AE8" t="n">
-        <v>1015842.044803095</v>
+        <v>1266599.094673506</v>
       </c>
       <c r="AF8" t="n">
         <v>4.729879550391101e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.26851851851853</v>
       </c>
       <c r="AH8" t="n">
-        <v>918891.505790351</v>
+        <v>1145716.654760861</v>
       </c>
     </row>
     <row r="9">
@@ -15372,28 +15372,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>720.6712848397004</v>
+        <v>904.0078376560887</v>
       </c>
       <c r="AB9" t="n">
-        <v>986.054245690874</v>
+        <v>1236.903405492127</v>
       </c>
       <c r="AC9" t="n">
-        <v>891.9466124179619</v>
+        <v>1118.855080476791</v>
       </c>
       <c r="AD9" t="n">
-        <v>720671.2848397004</v>
+        <v>904007.8376560886</v>
       </c>
       <c r="AE9" t="n">
-        <v>986054.2456908741</v>
+        <v>1236903.405492127</v>
       </c>
       <c r="AF9" t="n">
         <v>4.774653347410066e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.9212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>891946.6124179619</v>
+        <v>1118855.080476791</v>
       </c>
     </row>
     <row r="10">
@@ -15478,28 +15478,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>709.415194475842</v>
+        <v>892.7517472922301</v>
       </c>
       <c r="AB10" t="n">
-        <v>970.6531662713832</v>
+        <v>1221.502326072636</v>
       </c>
       <c r="AC10" t="n">
-        <v>878.0153904027165</v>
+        <v>1104.923858461545</v>
       </c>
       <c r="AD10" t="n">
-        <v>709415.1944758419</v>
+        <v>892751.7472922301</v>
       </c>
       <c r="AE10" t="n">
-        <v>970653.1662713832</v>
+        <v>1221502.326072636</v>
       </c>
       <c r="AF10" t="n">
         <v>4.813640055018415e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.62037037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>878015.3904027166</v>
+        <v>1104923.858461545</v>
       </c>
     </row>
     <row r="11">
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>702.7474008814313</v>
+        <v>885.9824684713343</v>
       </c>
       <c r="AB11" t="n">
-        <v>961.5299969132182</v>
+        <v>1212.240300150382</v>
       </c>
       <c r="AC11" t="n">
-        <v>869.7629235236464</v>
+        <v>1096.545787293976</v>
       </c>
       <c r="AD11" t="n">
-        <v>702747.4008814313</v>
+        <v>885982.4684713343</v>
       </c>
       <c r="AE11" t="n">
-        <v>961529.9969132182</v>
+        <v>1212240.300150382</v>
       </c>
       <c r="AF11" t="n">
         <v>4.830087572290688e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.49305555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>869762.9235236463</v>
+        <v>1096545.787293976</v>
       </c>
     </row>
     <row r="12">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>698.67854369361</v>
+        <v>881.913611283513</v>
       </c>
       <c r="AB12" t="n">
-        <v>955.9628070035307</v>
+        <v>1206.673110240694</v>
       </c>
       <c r="AC12" t="n">
-        <v>864.7270584053392</v>
+        <v>1091.509922175669</v>
       </c>
       <c r="AD12" t="n">
-        <v>698678.54369361</v>
+        <v>881913.611283513</v>
       </c>
       <c r="AE12" t="n">
-        <v>955962.8070035307</v>
+        <v>1206673.110240694</v>
       </c>
       <c r="AF12" t="n">
         <v>4.835722369874707e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>864727.0584053393</v>
+        <v>1091509.922175669</v>
       </c>
     </row>
     <row r="13">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>698.9589696817907</v>
+        <v>882.1940372716937</v>
       </c>
       <c r="AB13" t="n">
-        <v>956.3464982120812</v>
+        <v>1207.056801449245</v>
       </c>
       <c r="AC13" t="n">
-        <v>865.0741306634596</v>
+        <v>1091.856994433789</v>
       </c>
       <c r="AD13" t="n">
-        <v>698958.9696817907</v>
+        <v>882194.0372716937</v>
       </c>
       <c r="AE13" t="n">
-        <v>956346.4982120811</v>
+        <v>1207056.801449245</v>
       </c>
       <c r="AF13" t="n">
         <v>4.842575502071487e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.40046296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>865074.1306634597</v>
+        <v>1091856.994433789</v>
       </c>
     </row>
   </sheetData>
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1746.243712900356</v>
+        <v>2068.31578190732</v>
       </c>
       <c r="AB2" t="n">
-        <v>2389.287686825752</v>
+        <v>2829.960900457957</v>
       </c>
       <c r="AC2" t="n">
-        <v>2161.257423381432</v>
+        <v>2559.873403993319</v>
       </c>
       <c r="AD2" t="n">
-        <v>1746243.712900356</v>
+        <v>2068315.78190732</v>
       </c>
       <c r="AE2" t="n">
-        <v>2389287.686825752</v>
+        <v>2829960.900457957</v>
       </c>
       <c r="AF2" t="n">
         <v>2.455534594832926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2161257.423381431</v>
+        <v>2559873.403993319</v>
       </c>
     </row>
     <row r="3">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1121.598917865626</v>
+        <v>1355.805472081649</v>
       </c>
       <c r="AB3" t="n">
-        <v>1534.62112087578</v>
+        <v>1855.072860818087</v>
       </c>
       <c r="AC3" t="n">
-        <v>1388.159034953666</v>
+        <v>1678.02731059272</v>
       </c>
       <c r="AD3" t="n">
-        <v>1121598.917865626</v>
+        <v>1355805.472081649</v>
       </c>
       <c r="AE3" t="n">
-        <v>1534621.12087578</v>
+        <v>1855072.860818087</v>
       </c>
       <c r="AF3" t="n">
         <v>3.387937227532918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1388159.034953666</v>
+        <v>1678027.31059272</v>
       </c>
     </row>
     <row r="4">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>975.7841507805632</v>
+        <v>1190.532354850749</v>
       </c>
       <c r="AB4" t="n">
-        <v>1335.110923656485</v>
+        <v>1628.938890487433</v>
       </c>
       <c r="AC4" t="n">
-        <v>1207.68981094266</v>
+        <v>1473.475249009403</v>
       </c>
       <c r="AD4" t="n">
-        <v>975784.1507805632</v>
+        <v>1190532.354850749</v>
       </c>
       <c r="AE4" t="n">
-        <v>1335110.923656485</v>
+        <v>1628938.890487433</v>
       </c>
       <c r="AF4" t="n">
         <v>3.744008433368758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.80092592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1207689.81094266</v>
+        <v>1473475.249009403</v>
       </c>
     </row>
     <row r="5">
@@ -16411,28 +16411,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>911.1062096621557</v>
+        <v>1116.09157875557</v>
       </c>
       <c r="AB5" t="n">
-        <v>1246.615711228899</v>
+        <v>1527.085736538748</v>
       </c>
       <c r="AC5" t="n">
-        <v>1127.640457385352</v>
+        <v>1381.342817121781</v>
       </c>
       <c r="AD5" t="n">
-        <v>911106.2096621557</v>
+        <v>1116091.57875557</v>
       </c>
       <c r="AE5" t="n">
-        <v>1246615.711228899</v>
+        <v>1527085.736538748</v>
       </c>
       <c r="AF5" t="n">
         <v>3.936857262968029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.70601851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>1127640.457385352</v>
+        <v>1381342.817121781</v>
       </c>
     </row>
     <row r="6">
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>875.7403929008359</v>
+        <v>1070.99709243626</v>
       </c>
       <c r="AB6" t="n">
-        <v>1198.226640506342</v>
+        <v>1465.385470928338</v>
       </c>
       <c r="AC6" t="n">
-        <v>1083.869571658068</v>
+        <v>1325.531138264363</v>
       </c>
       <c r="AD6" t="n">
-        <v>875740.392900836</v>
+        <v>1070997.09243626</v>
       </c>
       <c r="AE6" t="n">
-        <v>1198226.640506342</v>
+        <v>1465385.470928338</v>
       </c>
       <c r="AF6" t="n">
         <v>4.051348276664078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.54861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1083869.571658068</v>
+        <v>1325531.138264363</v>
       </c>
     </row>
     <row r="7">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>845.2330116960829</v>
+        <v>1040.455545812726</v>
       </c>
       <c r="AB7" t="n">
-        <v>1156.485095651328</v>
+        <v>1423.597179440077</v>
       </c>
       <c r="AC7" t="n">
-        <v>1046.111781259391</v>
+        <v>1287.731062665505</v>
       </c>
       <c r="AD7" t="n">
-        <v>845233.0116960829</v>
+        <v>1040455.545812726</v>
       </c>
       <c r="AE7" t="n">
-        <v>1156485.095651328</v>
+        <v>1423597.179440077</v>
       </c>
       <c r="AF7" t="n">
         <v>4.141473609089868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.69212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1046111.781259391</v>
+        <v>1287731.062665505</v>
       </c>
     </row>
     <row r="8">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>831.68555176552</v>
+        <v>1017.112096516468</v>
       </c>
       <c r="AB8" t="n">
-        <v>1137.948863302581</v>
+        <v>1391.657642272637</v>
       </c>
       <c r="AC8" t="n">
-        <v>1029.344620910243</v>
+        <v>1258.839790097903</v>
       </c>
       <c r="AD8" t="n">
-        <v>831685.55176552</v>
+        <v>1017112.096516468</v>
       </c>
       <c r="AE8" t="n">
-        <v>1137948.863302581</v>
+        <v>1391657.642272637</v>
       </c>
       <c r="AF8" t="n">
         <v>4.197127040173074e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.18287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1029344.620910243</v>
+        <v>1258839.790097903</v>
       </c>
     </row>
     <row r="9">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>811.4300576613621</v>
+        <v>1006.618426359224</v>
       </c>
       <c r="AB9" t="n">
-        <v>1110.234402659941</v>
+        <v>1377.299739815441</v>
       </c>
       <c r="AC9" t="n">
-        <v>1004.275189493846</v>
+        <v>1245.85218569978</v>
       </c>
       <c r="AD9" t="n">
-        <v>811430.0576613621</v>
+        <v>1006618.426359224</v>
       </c>
       <c r="AE9" t="n">
-        <v>1110234.402659941</v>
+        <v>1377299.739815441</v>
       </c>
       <c r="AF9" t="n">
         <v>4.23907477554176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.80092592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>1004275.189493846</v>
+        <v>1245852.18569978</v>
       </c>
     </row>
     <row r="10">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>800.7650181509795</v>
+        <v>986.1573974831467</v>
       </c>
       <c r="AB10" t="n">
-        <v>1095.642025093499</v>
+        <v>1349.304057430306</v>
       </c>
       <c r="AC10" t="n">
-        <v>991.0754879618145</v>
+        <v>1220.528371949295</v>
       </c>
       <c r="AD10" t="n">
-        <v>800765.0181509794</v>
+        <v>986157.3974831467</v>
       </c>
       <c r="AE10" t="n">
-        <v>1095642.025093499</v>
+        <v>1349304.057430306</v>
       </c>
       <c r="AF10" t="n">
         <v>4.27230070454666e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>991075.4879618145</v>
+        <v>1220528.371949296</v>
       </c>
     </row>
     <row r="11">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>794.5665566818103</v>
+        <v>979.9589360139778</v>
       </c>
       <c r="AB11" t="n">
-        <v>1087.161016654561</v>
+        <v>1340.823048991368</v>
       </c>
       <c r="AC11" t="n">
-        <v>983.4038950651191</v>
+        <v>1212.8567790526</v>
       </c>
       <c r="AD11" t="n">
-        <v>794566.5566818103</v>
+        <v>979958.9360139777</v>
       </c>
       <c r="AE11" t="n">
-        <v>1087161.016654561</v>
+        <v>1340823.048991368</v>
       </c>
       <c r="AF11" t="n">
         <v>4.298466123638018e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.2800925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>983403.895065119</v>
+        <v>1212856.7790526</v>
       </c>
     </row>
     <row r="12">
@@ -17153,28 +17153,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>784.5251139035264</v>
+        <v>969.9174932356938</v>
       </c>
       <c r="AB12" t="n">
-        <v>1073.421871648123</v>
+        <v>1327.08390398493</v>
       </c>
       <c r="AC12" t="n">
-        <v>970.9759947750844</v>
+        <v>1200.428878762565</v>
       </c>
       <c r="AD12" t="n">
-        <v>784525.1139035264</v>
+        <v>969917.4932356938</v>
       </c>
       <c r="AE12" t="n">
-        <v>1073421.871648123</v>
+        <v>1327083.90398493</v>
       </c>
       <c r="AF12" t="n">
         <v>4.327677252888158e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.02546296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>970975.9947750843</v>
+        <v>1200428.878762565</v>
       </c>
     </row>
     <row r="13">
@@ -17259,28 +17259,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>767.263932547018</v>
+        <v>952.7236316868898</v>
       </c>
       <c r="AB13" t="n">
-        <v>1049.804361806571</v>
+        <v>1303.55850407422</v>
       </c>
       <c r="AC13" t="n">
-        <v>949.6125069254272</v>
+        <v>1179.148710001227</v>
       </c>
       <c r="AD13" t="n">
-        <v>767263.932547018</v>
+        <v>952723.6316868898</v>
       </c>
       <c r="AE13" t="n">
-        <v>1049804.361806571</v>
+        <v>1303558.50407422</v>
       </c>
       <c r="AF13" t="n">
         <v>4.345536189728293e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.875</v>
       </c>
       <c r="AH13" t="n">
-        <v>949612.5069254271</v>
+        <v>1179148.710001227</v>
       </c>
     </row>
     <row r="14">
@@ -17365,28 +17365,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>759.5572093133073</v>
+        <v>945.0169084531792</v>
       </c>
       <c r="AB14" t="n">
-        <v>1039.259683081575</v>
+        <v>1293.013825349224</v>
       </c>
       <c r="AC14" t="n">
-        <v>940.074197538395</v>
+        <v>1169.610400614195</v>
       </c>
       <c r="AD14" t="n">
-        <v>759557.2093133073</v>
+        <v>945016.9084531792</v>
       </c>
       <c r="AE14" t="n">
-        <v>1039259.683081575</v>
+        <v>1293013.825349224</v>
       </c>
       <c r="AF14" t="n">
         <v>4.362287595601595e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>37</v>
+        <v>36.73611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>940074.1975383949</v>
+        <v>1169610.400614195</v>
       </c>
     </row>
     <row r="15">
@@ -17471,28 +17471,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>751.4537621603934</v>
+        <v>936.9134613002652</v>
       </c>
       <c r="AB15" t="n">
-        <v>1028.172189188101</v>
+        <v>1281.92633145575</v>
       </c>
       <c r="AC15" t="n">
-        <v>930.0448785007185</v>
+        <v>1159.581081576518</v>
       </c>
       <c r="AD15" t="n">
-        <v>751453.7621603934</v>
+        <v>936913.4613002653</v>
       </c>
       <c r="AE15" t="n">
-        <v>1028172.189188101</v>
+        <v>1281926.331455749</v>
       </c>
       <c r="AF15" t="n">
         <v>4.379177442845753e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>37</v>
+        <v>36.58564814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>930044.8785007185</v>
+        <v>1159581.081576518</v>
       </c>
     </row>
     <row r="16">
@@ -17577,28 +17577,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>748.8124713647829</v>
+        <v>934.2721705046548</v>
       </c>
       <c r="AB16" t="n">
-        <v>1024.558258596021</v>
+        <v>1278.312400863669</v>
       </c>
       <c r="AC16" t="n">
-        <v>926.775856372163</v>
+        <v>1156.312059447963</v>
       </c>
       <c r="AD16" t="n">
-        <v>748812.4713647829</v>
+        <v>934272.1705046548</v>
       </c>
       <c r="AE16" t="n">
-        <v>1024558.258596021</v>
+        <v>1278312.400863669</v>
       </c>
       <c r="AF16" t="n">
         <v>4.387899249209539e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>37</v>
+        <v>36.5162037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>926775.856372163</v>
+        <v>1156312.059447963</v>
       </c>
     </row>
     <row r="17">
@@ -17683,28 +17683,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>745.2552316566405</v>
+        <v>930.7149307965124</v>
       </c>
       <c r="AB17" t="n">
-        <v>1019.691086293</v>
+        <v>1273.445228560649</v>
       </c>
       <c r="AC17" t="n">
-        <v>922.3732001626236</v>
+        <v>1151.909403238423</v>
       </c>
       <c r="AD17" t="n">
-        <v>745255.2316566405</v>
+        <v>930714.9307965124</v>
       </c>
       <c r="AE17" t="n">
-        <v>1019691.086293</v>
+        <v>1273445.228560649</v>
       </c>
       <c r="AF17" t="n">
         <v>4.38720704235527e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>37</v>
+        <v>36.52777777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>922373.2001626235</v>
+        <v>1151909.403238423</v>
       </c>
     </row>
     <row r="18">
@@ -17789,28 +17789,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>745.0514204299861</v>
+        <v>930.4096343433727</v>
       </c>
       <c r="AB18" t="n">
-        <v>1019.412222781175</v>
+        <v>1273.027508484734</v>
       </c>
       <c r="AC18" t="n">
-        <v>922.1209509929795</v>
+        <v>1151.53154978028</v>
       </c>
       <c r="AD18" t="n">
-        <v>745051.4204299861</v>
+        <v>930409.6343433727</v>
       </c>
       <c r="AE18" t="n">
-        <v>1019412.222781175</v>
+        <v>1273027.508484734</v>
       </c>
       <c r="AF18" t="n">
         <v>4.396759496944179e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>922120.9509929795</v>
+        <v>1151531.54978028</v>
       </c>
     </row>
     <row r="19">
@@ -17895,28 +17895,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>746.7944550683628</v>
+        <v>932.1526689817496</v>
       </c>
       <c r="AB19" t="n">
-        <v>1021.797119670663</v>
+        <v>1275.412405374223</v>
       </c>
       <c r="AC19" t="n">
-        <v>924.2782366705587</v>
+        <v>1153.68883545786</v>
       </c>
       <c r="AD19" t="n">
-        <v>746794.4550683629</v>
+        <v>932152.6689817496</v>
       </c>
       <c r="AE19" t="n">
-        <v>1021797.119670663</v>
+        <v>1275412.405374222</v>
       </c>
       <c r="AF19" t="n">
         <v>4.39606729008991e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>924278.2366705587</v>
+        <v>1153688.83545786</v>
       </c>
     </row>
   </sheetData>
@@ -18192,28 +18192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.431706380928</v>
+        <v>1307.80934745502</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.929443615497</v>
+        <v>1789.402445664355</v>
       </c>
       <c r="AC2" t="n">
-        <v>1312.454773909097</v>
+        <v>1618.624387692254</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060431.706380928</v>
+        <v>1307809.34745502</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450929.443615497</v>
+        <v>1789402.445664355</v>
       </c>
       <c r="AF2" t="n">
         <v>3.969343144002731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.32407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1312454.773909097</v>
+        <v>1618624.387692254</v>
       </c>
     </row>
     <row r="3">
@@ -18298,28 +18298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.4847262836557</v>
+        <v>1007.297822830498</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.836226213227</v>
+        <v>1378.229320040294</v>
       </c>
       <c r="AC3" t="n">
-        <v>999.3922074308178</v>
+        <v>1246.693048092648</v>
       </c>
       <c r="AD3" t="n">
-        <v>807484.7262836557</v>
+        <v>1007297.822830498</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104836.226213227</v>
+        <v>1378229.320040294</v>
       </c>
       <c r="AF3" t="n">
         <v>4.829174769004756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.36574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>999392.2074308179</v>
+        <v>1246693.048092648</v>
       </c>
     </row>
     <row r="4">
@@ -18404,28 +18404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.7116084053366</v>
+        <v>923.0722827706771</v>
       </c>
       <c r="AB4" t="n">
-        <v>1002.528347574964</v>
+        <v>1262.988220361867</v>
       </c>
       <c r="AC4" t="n">
-        <v>906.848449139782</v>
+        <v>1142.45039722563</v>
       </c>
       <c r="AD4" t="n">
-        <v>732711.6084053366</v>
+        <v>923072.2827706771</v>
       </c>
       <c r="AE4" t="n">
-        <v>1002528.347574964</v>
+        <v>1262988.220361867</v>
       </c>
       <c r="AF4" t="n">
         <v>5.132929016295717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.91203703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>906848.449139782</v>
+        <v>1142450.39722563</v>
       </c>
     </row>
     <row r="5">
@@ -18510,28 +18510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.7648055124545</v>
+        <v>889.0913144590143</v>
       </c>
       <c r="AB5" t="n">
-        <v>956.0808342296766</v>
+        <v>1216.493960383331</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.833821278674</v>
+        <v>1100.393484164342</v>
       </c>
       <c r="AD5" t="n">
-        <v>698764.8055124545</v>
+        <v>889091.3144590142</v>
       </c>
       <c r="AE5" t="n">
-        <v>956080.8342296766</v>
+        <v>1216493.960383331</v>
       </c>
       <c r="AF5" t="n">
         <v>5.286877191627272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>864833.8212786741</v>
+        <v>1100393.484164342</v>
       </c>
     </row>
     <row r="6">
@@ -18616,28 +18616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.0555184250147</v>
+        <v>861.8291309934447</v>
       </c>
       <c r="AB6" t="n">
-        <v>931.8502063580348</v>
+        <v>1179.192638243088</v>
       </c>
       <c r="AC6" t="n">
-        <v>842.9157305232021</v>
+        <v>1066.652147856429</v>
       </c>
       <c r="AD6" t="n">
-        <v>681055.5184250147</v>
+        <v>861829.1309934447</v>
       </c>
       <c r="AE6" t="n">
-        <v>931850.2063580349</v>
+        <v>1179192.638243088</v>
       </c>
       <c r="AF6" t="n">
         <v>5.387840961323415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.07175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>842915.7305232021</v>
+        <v>1066652.147856429</v>
       </c>
     </row>
     <row r="7">
@@ -18722,28 +18722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>654.1481994953176</v>
+        <v>834.9891318714519</v>
       </c>
       <c r="AB7" t="n">
-        <v>895.0344255312913</v>
+        <v>1142.468967347186</v>
       </c>
       <c r="AC7" t="n">
-        <v>809.61359614729</v>
+        <v>1033.433332568836</v>
       </c>
       <c r="AD7" t="n">
-        <v>654148.1994953176</v>
+        <v>834989.131871452</v>
       </c>
       <c r="AE7" t="n">
-        <v>895034.4255312913</v>
+        <v>1142468.967347186</v>
       </c>
       <c r="AF7" t="n">
         <v>5.456013079323376e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.6087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>809613.59614729</v>
+        <v>1033433.332568836</v>
       </c>
     </row>
     <row r="8">
@@ -18828,28 +18828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.1199283976757</v>
+        <v>828.859375547325</v>
       </c>
       <c r="AB8" t="n">
-        <v>886.7862790669468</v>
+        <v>1134.081964318752</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.1526412051562</v>
+        <v>1025.846773338203</v>
       </c>
       <c r="AD8" t="n">
-        <v>648119.9283976757</v>
+        <v>828859.375547325</v>
       </c>
       <c r="AE8" t="n">
-        <v>886786.2790669468</v>
+        <v>1134081.964318752</v>
       </c>
       <c r="AF8" t="n">
         <v>5.481383462477791e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>802152.6412051562</v>
+        <v>1025846.773338203</v>
       </c>
     </row>
     <row r="9">
@@ -18934,28 +18934,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>648.7254470381502</v>
+        <v>829.4648941877995</v>
       </c>
       <c r="AB9" t="n">
-        <v>887.6147763844408</v>
+        <v>1134.910461636246</v>
       </c>
       <c r="AC9" t="n">
-        <v>802.9020679014718</v>
+        <v>1026.596200034519</v>
       </c>
       <c r="AD9" t="n">
-        <v>648725.4470381502</v>
+        <v>829464.8941877994</v>
       </c>
       <c r="AE9" t="n">
-        <v>887614.7763844408</v>
+        <v>1134910.461636246</v>
       </c>
       <c r="AF9" t="n">
         <v>5.489322493941078e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.38888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>802902.0679014719</v>
+        <v>1026596.200034519</v>
       </c>
     </row>
   </sheetData>
@@ -19231,28 +19231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.5043195512616</v>
+        <v>1084.058389561224</v>
       </c>
       <c r="AB2" t="n">
-        <v>1174.643484547565</v>
+        <v>1483.256513878475</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.537159004829</v>
+        <v>1341.696593957505</v>
       </c>
       <c r="AD2" t="n">
-        <v>858504.3195512616</v>
+        <v>1084058.389561224</v>
       </c>
       <c r="AE2" t="n">
-        <v>1174643.484547565</v>
+        <v>1483256.513878475</v>
       </c>
       <c r="AF2" t="n">
         <v>4.95751807643262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.82175925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062537.159004829</v>
+        <v>1341696.593957504</v>
       </c>
     </row>
     <row r="3">
@@ -19337,28 +19337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>696.1739087447727</v>
+        <v>884.0910908912236</v>
       </c>
       <c r="AB3" t="n">
-        <v>952.5358549698359</v>
+        <v>1209.652433903585</v>
       </c>
       <c r="AC3" t="n">
-        <v>861.6271698639829</v>
+        <v>1094.20490336968</v>
       </c>
       <c r="AD3" t="n">
-        <v>696173.9087447727</v>
+        <v>884091.0908912236</v>
       </c>
       <c r="AE3" t="n">
-        <v>952535.8549698358</v>
+        <v>1209652.433903585</v>
       </c>
       <c r="AF3" t="n">
         <v>5.760156384270853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.43287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>861627.1698639829</v>
+        <v>1094204.90336968</v>
       </c>
     </row>
     <row r="4">
@@ -19443,28 +19443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.5740164911998</v>
+        <v>830.5243530265745</v>
       </c>
       <c r="AB4" t="n">
-        <v>879.1981177281408</v>
+        <v>1136.360059959483</v>
       </c>
       <c r="AC4" t="n">
-        <v>795.2886833344745</v>
+        <v>1027.907450728311</v>
       </c>
       <c r="AD4" t="n">
-        <v>642574.0164911998</v>
+        <v>830524.3530265746</v>
       </c>
       <c r="AE4" t="n">
-        <v>879198.1177281408</v>
+        <v>1136360.059959483</v>
       </c>
       <c r="AF4" t="n">
         <v>6.035486835590421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.62731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>795288.6833344746</v>
+        <v>1027907.450728311</v>
       </c>
     </row>
     <row r="5">
@@ -19549,28 +19549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>611.7045715307889</v>
+        <v>790.2881401162975</v>
       </c>
       <c r="AB5" t="n">
-        <v>836.9611812695105</v>
+        <v>1081.307098359209</v>
       </c>
       <c r="AC5" t="n">
-        <v>757.0827808115432</v>
+        <v>978.1086665158496</v>
       </c>
       <c r="AD5" t="n">
-        <v>611704.5715307889</v>
+        <v>790288.1401162975</v>
       </c>
       <c r="AE5" t="n">
-        <v>836961.1812695104</v>
+        <v>1081307.098359209</v>
       </c>
       <c r="AF5" t="n">
         <v>6.180511214439432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.74768518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>757082.7808115432</v>
+        <v>978108.6665158495</v>
       </c>
     </row>
     <row r="6">
@@ -19655,28 +19655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>608.4733586335843</v>
+        <v>787.0569272190928</v>
       </c>
       <c r="AB6" t="n">
-        <v>832.5400932325028</v>
+        <v>1076.886010322201</v>
       </c>
       <c r="AC6" t="n">
-        <v>753.0836352117516</v>
+        <v>974.1095209160579</v>
       </c>
       <c r="AD6" t="n">
-        <v>608473.3586335843</v>
+        <v>787056.9272190928</v>
       </c>
       <c r="AE6" t="n">
-        <v>832540.0932325028</v>
+        <v>1076886.010322201</v>
       </c>
       <c r="AF6" t="n">
         <v>6.203275528304771e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.62037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>753083.6352117516</v>
+        <v>974109.520916058</v>
       </c>
     </row>
     <row r="7">
@@ -19761,28 +19761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>610.3098979020899</v>
+        <v>788.8934664875986</v>
       </c>
       <c r="AB7" t="n">
-        <v>835.0529272820664</v>
+        <v>1079.398844371765</v>
       </c>
       <c r="AC7" t="n">
-        <v>755.3566479064095</v>
+        <v>976.3825336107159</v>
       </c>
       <c r="AD7" t="n">
-        <v>610309.8979020899</v>
+        <v>788893.4664875986</v>
       </c>
       <c r="AE7" t="n">
-        <v>835052.9272820664</v>
+        <v>1079398.844371765</v>
       </c>
       <c r="AF7" t="n">
         <v>6.202686796049633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.62037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>755356.6479064096</v>
+        <v>976382.5336107159</v>
       </c>
     </row>
   </sheetData>
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.229643249775</v>
+        <v>946.1643975994357</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.868901586323</v>
+        <v>1294.58387062278</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.2519397507583</v>
+        <v>1171.030602970415</v>
       </c>
       <c r="AD2" t="n">
-        <v>732229.6432497751</v>
+        <v>946164.3975994356</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001868.901586323</v>
+        <v>1294583.87062278</v>
       </c>
       <c r="AF2" t="n">
         <v>5.937540393021704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>906251.9397507583</v>
+        <v>1171030.602970415</v>
       </c>
     </row>
     <row r="3">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.8719844216001</v>
+        <v>796.6180455492896</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.136195907545</v>
+        <v>1089.967954228347</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.1912677367553</v>
+        <v>985.9429424564249</v>
       </c>
       <c r="AD3" t="n">
-        <v>619871.9844216001</v>
+        <v>796618.0455492896</v>
       </c>
       <c r="AE3" t="n">
-        <v>848136.195907545</v>
+        <v>1089967.954228347</v>
       </c>
       <c r="AF3" t="n">
         <v>6.694581751918164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.10185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>767191.2677367553</v>
+        <v>985942.9424564249</v>
       </c>
     </row>
     <row r="4">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.7987558304196</v>
+        <v>754.5779713470325</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.5697484092461</v>
+        <v>1032.446870027642</v>
       </c>
       <c r="AC4" t="n">
-        <v>715.1188811926776</v>
+        <v>933.9115898004865</v>
       </c>
       <c r="AD4" t="n">
-        <v>577798.7558304196</v>
+        <v>754577.9713470326</v>
       </c>
       <c r="AE4" t="n">
-        <v>790569.7484092461</v>
+        <v>1032446.870027642</v>
       </c>
       <c r="AF4" t="n">
         <v>6.901308038568785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.95601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>715118.8811926775</v>
+        <v>933911.5898004865</v>
       </c>
     </row>
     <row r="5">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.6256309350244</v>
+        <v>755.4048464516374</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.7011154065215</v>
+        <v>1033.578237024918</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.1422721116164</v>
+        <v>934.9349807194255</v>
       </c>
       <c r="AD5" t="n">
-        <v>578625.6309350245</v>
+        <v>755404.8464516373</v>
       </c>
       <c r="AE5" t="n">
-        <v>791701.1154065215</v>
+        <v>1033578.237024918</v>
       </c>
       <c r="AF5" t="n">
         <v>6.905936239016188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.93287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>716142.2721116164</v>
+        <v>934934.9807194255</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>541.2733334556348</v>
+        <v>723.593477080633</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.5940541281565</v>
+        <v>990.0525180329411</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.9127970324478</v>
+        <v>895.5632952593126</v>
       </c>
       <c r="AD2" t="n">
-        <v>541273.3334556348</v>
+        <v>723593.4770806329</v>
       </c>
       <c r="AE2" t="n">
-        <v>740594.0541281565</v>
+        <v>990052.518032941</v>
       </c>
       <c r="AF2" t="n">
         <v>8.674935523118149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>669912.7970324478</v>
+        <v>895563.2952593126</v>
       </c>
     </row>
     <row r="3">
@@ -37424,28 +37424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.9769121522629</v>
+        <v>722.297055777261</v>
       </c>
       <c r="AB3" t="n">
-        <v>738.8202333068117</v>
+        <v>988.2786972115962</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.308267180719</v>
+        <v>893.9587654075838</v>
       </c>
       <c r="AD3" t="n">
-        <v>539976.9121522629</v>
+        <v>722297.055777261</v>
       </c>
       <c r="AE3" t="n">
-        <v>738820.2333068117</v>
+        <v>988278.6972115962</v>
       </c>
       <c r="AF3" t="n">
         <v>8.731483941903972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.63425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>668308.2671807189</v>
+        <v>893958.7654075838</v>
       </c>
     </row>
   </sheetData>
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.739317509255</v>
+        <v>1553.010017664851</v>
       </c>
       <c r="AB2" t="n">
-        <v>1756.468768797783</v>
+        <v>2124.896820135555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.833854723122</v>
+        <v>1922.099649933235</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283739.317509255</v>
+        <v>1553010.017664851</v>
       </c>
       <c r="AE2" t="n">
-        <v>1756468.768797783</v>
+        <v>2124896.820135555</v>
       </c>
       <c r="AF2" t="n">
         <v>3.273661323760164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.3587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588833.854723122</v>
+        <v>1922099.649933235</v>
       </c>
     </row>
     <row r="3">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>920.6042626791368</v>
+        <v>1132.253836907915</v>
       </c>
       <c r="AB3" t="n">
-        <v>1259.611366391259</v>
+        <v>1549.199651171293</v>
       </c>
       <c r="AC3" t="n">
-        <v>1139.395825458533</v>
+        <v>1401.346210778871</v>
       </c>
       <c r="AD3" t="n">
-        <v>920604.2626791368</v>
+        <v>1132253.836907915</v>
       </c>
       <c r="AE3" t="n">
-        <v>1259611.366391259</v>
+        <v>1549199.651171293</v>
       </c>
       <c r="AF3" t="n">
         <v>4.163716378015056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.53009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1139395.825458533</v>
+        <v>1401346.210778871</v>
       </c>
     </row>
     <row r="4">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>828.0532258076109</v>
+        <v>1029.946714198906</v>
       </c>
       <c r="AB4" t="n">
-        <v>1132.978954680059</v>
+        <v>1409.218532409118</v>
       </c>
       <c r="AC4" t="n">
-        <v>1024.849033391343</v>
+        <v>1274.724693526623</v>
       </c>
       <c r="AD4" t="n">
-        <v>828053.2258076109</v>
+        <v>1029946.714198906</v>
       </c>
       <c r="AE4" t="n">
-        <v>1132978.954680059</v>
+        <v>1409218.532409118</v>
       </c>
       <c r="AF4" t="n">
         <v>4.499600982409276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.27777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1024849.033391343</v>
+        <v>1274724.693526623</v>
       </c>
     </row>
     <row r="5">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>778.6617687804692</v>
+        <v>971.0363072060321</v>
       </c>
       <c r="AB5" t="n">
-        <v>1065.399384178225</v>
+        <v>1328.614714617736</v>
       </c>
       <c r="AC5" t="n">
-        <v>963.7191622496817</v>
+        <v>1201.813590977082</v>
       </c>
       <c r="AD5" t="n">
-        <v>778661.7687804692</v>
+        <v>971036.3072060321</v>
       </c>
       <c r="AE5" t="n">
-        <v>1065399.384178225</v>
+        <v>1328614.714617736</v>
       </c>
       <c r="AF5" t="n">
         <v>4.666838631590174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.83101851851851</v>
       </c>
       <c r="AH5" t="n">
-        <v>963719.1622496818</v>
+        <v>1201813.590977082</v>
       </c>
     </row>
     <row r="6">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>748.3980825823938</v>
+        <v>940.7384555891762</v>
       </c>
       <c r="AB6" t="n">
-        <v>1023.991273582413</v>
+        <v>1287.159857388676</v>
       </c>
       <c r="AC6" t="n">
-        <v>926.2629836124855</v>
+        <v>1164.315127139706</v>
       </c>
       <c r="AD6" t="n">
-        <v>748398.0825823939</v>
+        <v>940738.4555891762</v>
       </c>
       <c r="AE6" t="n">
-        <v>1023991.273582413</v>
+        <v>1287159.857388676</v>
       </c>
       <c r="AF6" t="n">
         <v>4.777860629033298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.92824074074075</v>
       </c>
       <c r="AH6" t="n">
-        <v>926262.9836124856</v>
+        <v>1164315.127139706</v>
       </c>
     </row>
     <row r="7">
@@ -38251,28 +38251,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>734.5215402956891</v>
+        <v>917.2083237213307</v>
       </c>
       <c r="AB7" t="n">
-        <v>1005.004776235904</v>
+        <v>1254.964892890935</v>
       </c>
       <c r="AC7" t="n">
-        <v>909.0885309250112</v>
+        <v>1135.192804867713</v>
       </c>
       <c r="AD7" t="n">
-        <v>734521.5402956891</v>
+        <v>917208.3237213306</v>
       </c>
       <c r="AE7" t="n">
-        <v>1005004.776235904</v>
+        <v>1254964.892890935</v>
       </c>
       <c r="AF7" t="n">
         <v>4.844567781234667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.40740740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>909088.5309250113</v>
+        <v>1135192.804867713</v>
       </c>
     </row>
     <row r="8">
@@ -38357,28 +38357,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>721.1890096466868</v>
+        <v>903.8757930723282</v>
       </c>
       <c r="AB8" t="n">
-        <v>986.7626196121993</v>
+        <v>1236.72273626723</v>
       </c>
       <c r="AC8" t="n">
-        <v>892.5873801264451</v>
+        <v>1118.691654069147</v>
       </c>
       <c r="AD8" t="n">
-        <v>721189.0096466868</v>
+        <v>903875.7930723282</v>
       </c>
       <c r="AE8" t="n">
-        <v>986762.6196121993</v>
+        <v>1236722.73626723</v>
       </c>
       <c r="AF8" t="n">
         <v>4.894833029724432e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.02546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>892587.3801264451</v>
+        <v>1118691.654069147</v>
       </c>
     </row>
     <row r="9">
@@ -38463,28 +38463,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>699.0154730562331</v>
+        <v>881.7695762895789</v>
       </c>
       <c r="AB9" t="n">
-        <v>956.4238086217458</v>
+        <v>1206.476035207618</v>
       </c>
       <c r="AC9" t="n">
-        <v>865.144062676132</v>
+        <v>1091.331655707153</v>
       </c>
       <c r="AD9" t="n">
-        <v>699015.473056233</v>
+        <v>881769.5762895789</v>
       </c>
       <c r="AE9" t="n">
-        <v>956423.8086217458</v>
+        <v>1206476.035207618</v>
       </c>
       <c r="AF9" t="n">
         <v>4.942123076590191e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>865144.062676132</v>
+        <v>1091331.655707153</v>
       </c>
     </row>
     <row r="10">
@@ -38569,28 +38569,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>689.7424227893737</v>
+        <v>872.3950407962345</v>
       </c>
       <c r="AB10" t="n">
-        <v>943.736012148524</v>
+        <v>1193.649382170307</v>
       </c>
       <c r="AC10" t="n">
-        <v>853.6671716908801</v>
+        <v>1079.729160433402</v>
       </c>
       <c r="AD10" t="n">
-        <v>689742.4227893737</v>
+        <v>872395.0407962345</v>
       </c>
       <c r="AE10" t="n">
-        <v>943736.0121485239</v>
+        <v>1193649.382170307</v>
       </c>
       <c r="AF10" t="n">
         <v>4.970152607679499e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.46990740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>853667.1716908801</v>
+        <v>1079729.160433402</v>
       </c>
     </row>
     <row r="11">
@@ -38675,28 +38675,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>685.5271511715678</v>
+        <v>868.1797691784285</v>
       </c>
       <c r="AB11" t="n">
-        <v>937.9684915563828</v>
+        <v>1187.881861578166</v>
       </c>
       <c r="AC11" t="n">
-        <v>848.4500951692868</v>
+        <v>1074.512083911809</v>
       </c>
       <c r="AD11" t="n">
-        <v>685527.1511715677</v>
+        <v>868179.7691784285</v>
       </c>
       <c r="AE11" t="n">
-        <v>937968.4915563827</v>
+        <v>1187881.861578166</v>
       </c>
       <c r="AF11" t="n">
         <v>4.97344098842182e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>848450.0951692868</v>
+        <v>1074512.083911809</v>
       </c>
     </row>
     <row r="12">
@@ -38781,28 +38781,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>685.663148205742</v>
+        <v>868.3157662126027</v>
       </c>
       <c r="AB12" t="n">
-        <v>938.1545686983056</v>
+        <v>1188.067938720089</v>
       </c>
       <c r="AC12" t="n">
-        <v>848.6184133699455</v>
+        <v>1074.680402112468</v>
       </c>
       <c r="AD12" t="n">
-        <v>685663.148205742</v>
+        <v>868315.7662126027</v>
       </c>
       <c r="AE12" t="n">
-        <v>938154.5686983056</v>
+        <v>1188067.938720089</v>
       </c>
       <c r="AF12" t="n">
         <v>4.986594511391105e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.34259259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>848618.4133699455</v>
+        <v>1074680.402112468</v>
       </c>
     </row>
     <row r="13">
@@ -38887,28 +38887,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>687.1772279387117</v>
+        <v>869.8298459455725</v>
       </c>
       <c r="AB13" t="n">
-        <v>940.2261993854383</v>
+        <v>1190.139569407222</v>
       </c>
       <c r="AC13" t="n">
-        <v>850.4923305318503</v>
+        <v>1076.554319274372</v>
       </c>
       <c r="AD13" t="n">
-        <v>687177.2279387116</v>
+        <v>869829.8459455725</v>
       </c>
       <c r="AE13" t="n">
-        <v>940226.1993854383</v>
+        <v>1190139.569407222</v>
       </c>
       <c r="AF13" t="n">
         <v>4.986437921831946e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.34259259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>850492.3305318502</v>
+        <v>1076554.319274372</v>
       </c>
     </row>
   </sheetData>
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1644.240983584407</v>
+        <v>1955.702019732639</v>
       </c>
       <c r="AB2" t="n">
-        <v>2249.72305253285</v>
+        <v>2675.877782882007</v>
       </c>
       <c r="AC2" t="n">
-        <v>2035.01264190525</v>
+        <v>2420.495762901804</v>
       </c>
       <c r="AD2" t="n">
-        <v>1644240.983584407</v>
+        <v>1955702.019732639</v>
       </c>
       <c r="AE2" t="n">
-        <v>2249723.05253285</v>
+        <v>2675877.782882007</v>
       </c>
       <c r="AF2" t="n">
         <v>2.595845276804961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.09027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2035012.64190525</v>
+        <v>2420495.762901803</v>
       </c>
     </row>
     <row r="3">
@@ -39290,28 +39290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1079.686314674554</v>
+        <v>1313.324040286812</v>
       </c>
       <c r="AB3" t="n">
-        <v>1477.274448136203</v>
+        <v>1796.947891687889</v>
       </c>
       <c r="AC3" t="n">
-        <v>1336.285448173792</v>
+        <v>1625.449706937402</v>
       </c>
       <c r="AD3" t="n">
-        <v>1079686.314674554</v>
+        <v>1313324.040286812</v>
       </c>
       <c r="AE3" t="n">
-        <v>1477274.448136203</v>
+        <v>1796947.891687889</v>
       </c>
       <c r="AF3" t="n">
         <v>3.517535897818127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1336285.448173793</v>
+        <v>1625449.706937402</v>
       </c>
     </row>
     <row r="4">
@@ -39396,28 +39396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>948.4104812819842</v>
+        <v>1152.806066126438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1297.657061407461</v>
+        <v>1577.320117888438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1173.810492739857</v>
+        <v>1426.782899619854</v>
       </c>
       <c r="AD4" t="n">
-        <v>948410.4812819841</v>
+        <v>1152806.066126438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1297657.061407462</v>
+        <v>1577320.117888438</v>
       </c>
       <c r="AF4" t="n">
         <v>3.878062103274304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.2337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1173810.492739857</v>
+        <v>1426782.899619854</v>
       </c>
     </row>
     <row r="5">
@@ -39502,28 +39502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>887.7727467949073</v>
+        <v>1092.1000008018</v>
       </c>
       <c r="AB5" t="n">
-        <v>1214.6898379342</v>
+        <v>1494.259401148681</v>
       </c>
       <c r="AC5" t="n">
-        <v>1098.761544629654</v>
+        <v>1351.649381109291</v>
       </c>
       <c r="AD5" t="n">
-        <v>887772.7467949074</v>
+        <v>1092100.0008018</v>
       </c>
       <c r="AE5" t="n">
-        <v>1214689.8379342</v>
+        <v>1494259.401148681</v>
       </c>
       <c r="AF5" t="n">
         <v>4.064550933255168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.28935185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1098761.544629654</v>
+        <v>1351649.381109291</v>
       </c>
     </row>
     <row r="6">
@@ -39608,28 +39608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>853.018626918819</v>
+        <v>1047.643717551533</v>
       </c>
       <c r="AB6" t="n">
-        <v>1167.137717876178</v>
+        <v>1433.432353132868</v>
       </c>
       <c r="AC6" t="n">
-        <v>1055.74773217015</v>
+        <v>1296.627581184809</v>
       </c>
       <c r="AD6" t="n">
-        <v>853018.626918819</v>
+        <v>1047643.717551532</v>
       </c>
       <c r="AE6" t="n">
-        <v>1167137.717876178</v>
+        <v>1433432.353132868</v>
       </c>
       <c r="AF6" t="n">
         <v>4.181990788250706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.15509259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1055747.73217015</v>
+        <v>1296627.581184809</v>
       </c>
     </row>
     <row r="7">
@@ -39714,28 +39714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>826.835923467737</v>
+        <v>1021.426848681669</v>
       </c>
       <c r="AB7" t="n">
-        <v>1131.313387915054</v>
+        <v>1397.561276538496</v>
       </c>
       <c r="AC7" t="n">
-        <v>1023.342425980753</v>
+        <v>1264.179989795232</v>
       </c>
       <c r="AD7" t="n">
-        <v>826835.9234677369</v>
+        <v>1021426.848681669</v>
       </c>
       <c r="AE7" t="n">
-        <v>1131313.387915054</v>
+        <v>1397561.276538496</v>
       </c>
       <c r="AF7" t="n">
         <v>4.253728145458823e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.49537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1023342.425980753</v>
+        <v>1264179.989795232</v>
       </c>
     </row>
     <row r="8">
@@ -39820,28 +39820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>804.8790040305988</v>
+        <v>999.5372490522357</v>
       </c>
       <c r="AB8" t="n">
-        <v>1101.270962070241</v>
+        <v>1367.610960624525</v>
       </c>
       <c r="AC8" t="n">
-        <v>996.1672070937599</v>
+        <v>1237.088089996558</v>
       </c>
       <c r="AD8" t="n">
-        <v>804879.0040305988</v>
+        <v>999537.2490522356</v>
       </c>
       <c r="AE8" t="n">
-        <v>1101270.962070242</v>
+        <v>1367610.960624525</v>
       </c>
       <c r="AF8" t="n">
         <v>4.309759690733801e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.99768518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>996167.2070937599</v>
+        <v>1237088.089996558</v>
       </c>
     </row>
     <row r="9">
@@ -39926,28 +39926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>791.9394806517361</v>
+        <v>976.9297277179744</v>
       </c>
       <c r="AB9" t="n">
-        <v>1083.566535331799</v>
+        <v>1336.678352561539</v>
       </c>
       <c r="AC9" t="n">
-        <v>980.152465994915</v>
+        <v>1209.107646632915</v>
       </c>
       <c r="AD9" t="n">
-        <v>791939.480651736</v>
+        <v>976929.7277179745</v>
       </c>
       <c r="AE9" t="n">
-        <v>1083566.535331799</v>
+        <v>1336678.352561539</v>
       </c>
       <c r="AF9" t="n">
         <v>4.354471731912826e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.60416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>980152.465994915</v>
+        <v>1209107.646632915</v>
       </c>
     </row>
     <row r="10">
@@ -40032,28 +40032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>782.9409559091062</v>
+        <v>967.8297177488595</v>
       </c>
       <c r="AB10" t="n">
-        <v>1071.254356792039</v>
+        <v>1324.227317457689</v>
       </c>
       <c r="AC10" t="n">
-        <v>969.0153444947387</v>
+        <v>1197.84492084424</v>
       </c>
       <c r="AD10" t="n">
-        <v>782940.9559091062</v>
+        <v>967829.7177488594</v>
       </c>
       <c r="AE10" t="n">
-        <v>1071254.356792039</v>
+        <v>1324227.317457689</v>
       </c>
       <c r="AF10" t="n">
         <v>4.389986676013885e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.30324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>969015.3444947386</v>
+        <v>1197844.92084424</v>
       </c>
     </row>
     <row r="11">
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>774.5382112040988</v>
+        <v>959.4269730438523</v>
       </c>
       <c r="AB11" t="n">
-        <v>1059.757350783714</v>
+        <v>1312.730311449365</v>
       </c>
       <c r="AC11" t="n">
-        <v>958.6155966036995</v>
+        <v>1187.4451729532</v>
       </c>
       <c r="AD11" t="n">
-        <v>774538.2112040989</v>
+        <v>959426.9730438523</v>
       </c>
       <c r="AE11" t="n">
-        <v>1059757.350783714</v>
+        <v>1312730.311449365</v>
       </c>
       <c r="AF11" t="n">
         <v>4.414040622217791e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.10648148148149</v>
       </c>
       <c r="AH11" t="n">
-        <v>958615.5966036995</v>
+        <v>1187445.172953201</v>
       </c>
     </row>
     <row r="12">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>754.5049479491374</v>
+        <v>939.461029596595</v>
       </c>
       <c r="AB12" t="n">
-        <v>1032.346956193077</v>
+        <v>1285.412026789569</v>
       </c>
       <c r="AC12" t="n">
-        <v>933.8212116020622</v>
+        <v>1162.734107039882</v>
       </c>
       <c r="AD12" t="n">
-        <v>754504.9479491374</v>
+        <v>939461.0295965951</v>
       </c>
       <c r="AE12" t="n">
-        <v>1032346.956193077</v>
+        <v>1285412.026789569</v>
       </c>
       <c r="AF12" t="n">
         <v>4.444037308072072e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>36.85185185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>933821.2116020622</v>
+        <v>1162734.107039882</v>
       </c>
     </row>
     <row r="13">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>747.7953678834228</v>
+        <v>932.7514495308806</v>
       </c>
       <c r="AB13" t="n">
-        <v>1023.166612741385</v>
+        <v>1276.231683337877</v>
       </c>
       <c r="AC13" t="n">
-        <v>925.5170272447066</v>
+        <v>1154.429922682527</v>
       </c>
       <c r="AD13" t="n">
-        <v>747795.3678834229</v>
+        <v>932751.4495308805</v>
       </c>
       <c r="AE13" t="n">
-        <v>1023166.612741385</v>
+        <v>1276231.683337877</v>
       </c>
       <c r="AF13" t="n">
         <v>4.460733576613606e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>36.71296296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>925517.0272447066</v>
+        <v>1154429.922682527</v>
       </c>
     </row>
     <row r="14">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>740.3553598565501</v>
+        <v>925.3114415040079</v>
       </c>
       <c r="AB14" t="n">
-        <v>1012.986865529029</v>
+        <v>1266.051936125521</v>
       </c>
       <c r="AC14" t="n">
-        <v>916.308820818933</v>
+        <v>1145.221716256753</v>
       </c>
       <c r="AD14" t="n">
-        <v>740355.3598565501</v>
+        <v>925311.4415040079</v>
       </c>
       <c r="AE14" t="n">
-        <v>1012986.865529029</v>
+        <v>1266051.936125521</v>
       </c>
       <c r="AF14" t="n">
         <v>4.478561795564736e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>37</v>
+        <v>36.5625</v>
       </c>
       <c r="AH14" t="n">
-        <v>916308.820818933</v>
+        <v>1145221.716256753</v>
       </c>
     </row>
     <row r="15">
@@ -40562,28 +40562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>734.6645822859341</v>
+        <v>919.6206639333917</v>
       </c>
       <c r="AB15" t="n">
-        <v>1005.200492597524</v>
+        <v>1258.265563194017</v>
       </c>
       <c r="AC15" t="n">
-        <v>909.2655683917682</v>
+        <v>1138.178463829588</v>
       </c>
       <c r="AD15" t="n">
-        <v>734664.5822859341</v>
+        <v>919620.6639333917</v>
       </c>
       <c r="AE15" t="n">
-        <v>1005200.492597524</v>
+        <v>1258265.563194016</v>
       </c>
       <c r="AF15" t="n">
         <v>4.486060967028307e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>37</v>
+        <v>36.50462962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>909265.5683917681</v>
+        <v>1138178.463829588</v>
       </c>
     </row>
     <row r="16">
@@ -40668,28 +40668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>732.7425922185473</v>
+        <v>917.5971886395198</v>
       </c>
       <c r="AB16" t="n">
-        <v>1002.570740995109</v>
+        <v>1255.496955027511</v>
       </c>
       <c r="AC16" t="n">
-        <v>906.8867965914072</v>
+        <v>1135.674087740729</v>
       </c>
       <c r="AD16" t="n">
-        <v>732742.5922185474</v>
+        <v>917597.1886395199</v>
       </c>
       <c r="AE16" t="n">
-        <v>1002570.740995108</v>
+        <v>1255496.955027511</v>
       </c>
       <c r="AF16" t="n">
         <v>4.49525806410627e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>37</v>
+        <v>36.43518518518518</v>
       </c>
       <c r="AH16" t="n">
-        <v>906886.7965914073</v>
+        <v>1135674.087740728</v>
       </c>
     </row>
     <row r="17">
@@ -40774,28 +40774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>735.2473077103027</v>
+        <v>920.1019041312752</v>
       </c>
       <c r="AB17" t="n">
-        <v>1005.997803231177</v>
+        <v>1258.92401726358</v>
       </c>
       <c r="AC17" t="n">
-        <v>909.9867848175775</v>
+        <v>1138.774075966898</v>
       </c>
       <c r="AD17" t="n">
-        <v>735247.3077103028</v>
+        <v>920101.9041312753</v>
       </c>
       <c r="AE17" t="n">
-        <v>1005997.803231177</v>
+        <v>1258924.01726358</v>
       </c>
       <c r="AF17" t="n">
         <v>4.493843126094276e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>37</v>
+        <v>36.44675925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>909986.7848175775</v>
+        <v>1138774.075966898</v>
       </c>
     </row>
   </sheetData>
@@ -41071,28 +41071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.2059978644187</v>
+        <v>717.7948889581179</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.7147490820948</v>
+        <v>982.1186339480628</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.73986776622</v>
+        <v>888.3866099362189</v>
       </c>
       <c r="AD2" t="n">
-        <v>528205.9978644187</v>
+        <v>717794.8889581179</v>
       </c>
       <c r="AE2" t="n">
-        <v>722714.7490820949</v>
+        <v>982118.6339480628</v>
       </c>
       <c r="AF2" t="n">
         <v>9.781416153550642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.61342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>653739.86776622</v>
+        <v>888386.6099362188</v>
       </c>
     </row>
   </sheetData>
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>927.049927133776</v>
+        <v>1153.583030559639</v>
       </c>
       <c r="AB2" t="n">
-        <v>1268.430608860742</v>
+        <v>1578.383194903196</v>
       </c>
       <c r="AC2" t="n">
-        <v>1147.373371804613</v>
+        <v>1427.744518056361</v>
       </c>
       <c r="AD2" t="n">
-        <v>927049.927133776</v>
+        <v>1153583.030559639</v>
       </c>
       <c r="AE2" t="n">
-        <v>1268430.608860743</v>
+        <v>1578383.194903196</v>
       </c>
       <c r="AF2" t="n">
         <v>4.583397623014525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.25694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1147373.371804613</v>
+        <v>1427744.518056361</v>
       </c>
     </row>
     <row r="3">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.5575389654264</v>
+        <v>925.3523763680125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.790519437761</v>
+        <v>1266.107945012371</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.6084067054976</v>
+        <v>1145.272379734051</v>
       </c>
       <c r="AD3" t="n">
-        <v>736557.5389654264</v>
+        <v>925352.3763680125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007790.519437761</v>
+        <v>1266107.945012371</v>
       </c>
       <c r="AF3" t="n">
         <v>5.410362921728439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.03472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>911608.4067054976</v>
+        <v>1145272.379734051</v>
       </c>
     </row>
     <row r="4">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>680.5099464264088</v>
+        <v>859.8616759684803</v>
       </c>
       <c r="AB4" t="n">
-        <v>931.1037306806045</v>
+        <v>1176.500679479942</v>
       </c>
       <c r="AC4" t="n">
-        <v>842.2404974367404</v>
+        <v>1064.21710585945</v>
       </c>
       <c r="AD4" t="n">
-        <v>680509.9464264087</v>
+        <v>859861.6759684803</v>
       </c>
       <c r="AE4" t="n">
-        <v>931103.7306806045</v>
+        <v>1176500.679479942</v>
       </c>
       <c r="AF4" t="n">
         <v>5.694813533641803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.03240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>842240.4974367404</v>
+        <v>1064217.10585945</v>
       </c>
     </row>
     <row r="5">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>646.2569227167403</v>
+        <v>825.574486840031</v>
       </c>
       <c r="AB5" t="n">
-        <v>884.2372325042807</v>
+        <v>1129.587434670371</v>
       </c>
       <c r="AC5" t="n">
-        <v>799.8468720688217</v>
+        <v>1021.781195291352</v>
       </c>
       <c r="AD5" t="n">
-        <v>646256.9227167403</v>
+        <v>825574.486840031</v>
       </c>
       <c r="AE5" t="n">
-        <v>884237.2325042806</v>
+        <v>1129587.434670371</v>
       </c>
       <c r="AF5" t="n">
         <v>5.850887093073213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.01388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>799846.8720688217</v>
+        <v>1021781.195291352</v>
       </c>
     </row>
     <row r="6">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>623.0462599199062</v>
+        <v>802.4311438509015</v>
       </c>
       <c r="AB6" t="n">
-        <v>852.479379683479</v>
+        <v>1097.92169178041</v>
       </c>
       <c r="AC6" t="n">
-        <v>771.1199441488108</v>
+        <v>993.1375864596597</v>
       </c>
       <c r="AD6" t="n">
-        <v>623046.2599199063</v>
+        <v>802431.1438509015</v>
       </c>
       <c r="AE6" t="n">
-        <v>852479.379683479</v>
+        <v>1097921.69178041</v>
       </c>
       <c r="AF6" t="n">
         <v>5.92312257741437e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>771119.9441488108</v>
+        <v>993137.5864596597</v>
       </c>
     </row>
     <row r="7">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.5568974778209</v>
+        <v>802.9417814088162</v>
       </c>
       <c r="AB7" t="n">
-        <v>853.1780565179567</v>
+        <v>1098.620368614888</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.7519402468052</v>
+        <v>993.7695825576542</v>
       </c>
       <c r="AD7" t="n">
-        <v>623556.897477821</v>
+        <v>802941.7814088161</v>
       </c>
       <c r="AE7" t="n">
-        <v>853178.0565179568</v>
+        <v>1098620.368614888</v>
       </c>
       <c r="AF7" t="n">
         <v>5.926678210063286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.55092592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>771751.9402468052</v>
+        <v>993769.5825576542</v>
       </c>
     </row>
   </sheetData>
@@ -42195,28 +42195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1126.176962227327</v>
+        <v>1384.092226016065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1540.885003140523</v>
+        <v>1893.776045474663</v>
       </c>
       <c r="AC2" t="n">
-        <v>1393.825101086475</v>
+        <v>1713.036717625934</v>
       </c>
       <c r="AD2" t="n">
-        <v>1126176.962227327</v>
+        <v>1384092.226016065</v>
       </c>
       <c r="AE2" t="n">
-        <v>1540885.003140523</v>
+        <v>1893776.045474663</v>
       </c>
       <c r="AF2" t="n">
         <v>3.711134656036346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.96759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1393825.101086475</v>
+        <v>1713036.717625934</v>
       </c>
     </row>
     <row r="3">
@@ -42301,28 +42301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.5032475582503</v>
+        <v>1049.089834682112</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.95957663057</v>
+        <v>1435.410994389112</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.159224053947</v>
+        <v>1298.417383696598</v>
       </c>
       <c r="AD3" t="n">
-        <v>848503.2475582503</v>
+        <v>1049089.834682112</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160959.57663057</v>
+        <v>1435410.994389112</v>
       </c>
       <c r="AF3" t="n">
         <v>4.58297051973273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050159.224053947</v>
+        <v>1298417.383696598</v>
       </c>
     </row>
     <row r="4">
@@ -42407,28 +42407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>768.1358052663155</v>
+        <v>959.1332790222741</v>
       </c>
       <c r="AB4" t="n">
-        <v>1050.997296525424</v>
+        <v>1312.328466332176</v>
       </c>
       <c r="AC4" t="n">
-        <v>950.6915896290067</v>
+        <v>1187.081679370003</v>
       </c>
       <c r="AD4" t="n">
-        <v>768135.8052663155</v>
+        <v>959133.2790222741</v>
       </c>
       <c r="AE4" t="n">
-        <v>1050997.296525424</v>
+        <v>1312328.466332176</v>
       </c>
       <c r="AF4" t="n">
         <v>4.900577392096129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.35185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>950691.5896290067</v>
+        <v>1187081.679370003</v>
       </c>
     </row>
     <row r="5">
@@ -42513,28 +42513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>732.0228919105858</v>
+        <v>913.4995831362031</v>
       </c>
       <c r="AB5" t="n">
-        <v>1001.586015282819</v>
+        <v>1249.890430404277</v>
       </c>
       <c r="AC5" t="n">
-        <v>905.9960517190274</v>
+        <v>1130.602641958729</v>
       </c>
       <c r="AD5" t="n">
-        <v>732022.8919105858</v>
+        <v>913499.5831362031</v>
       </c>
       <c r="AE5" t="n">
-        <v>1001586.015282819</v>
+        <v>1249890.430404277</v>
       </c>
       <c r="AF5" t="n">
         <v>5.061547087113465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.10185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>905996.0517190273</v>
+        <v>1130602.641958729</v>
       </c>
     </row>
     <row r="6">
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.2646920003027</v>
+        <v>884.707217807139</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.2377774433314</v>
+        <v>1210.495445931541</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.4031544733417</v>
+        <v>1094.967459512863</v>
       </c>
       <c r="AD6" t="n">
-        <v>703264.6920003027</v>
+        <v>884707.217807139</v>
       </c>
       <c r="AE6" t="n">
-        <v>962237.7774433314</v>
+        <v>1210495.445931541</v>
       </c>
       <c r="AF6" t="n">
         <v>5.16452769945375e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.34953703703705</v>
       </c>
       <c r="AH6" t="n">
-        <v>870403.1544733418</v>
+        <v>1094967.459512863</v>
       </c>
     </row>
     <row r="7">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>678.0422017245395</v>
+        <v>859.5520473390802</v>
       </c>
       <c r="AB7" t="n">
-        <v>927.7272535102944</v>
+        <v>1176.077031929346</v>
       </c>
       <c r="AC7" t="n">
-        <v>839.1862665086491</v>
+        <v>1063.83389063649</v>
       </c>
       <c r="AD7" t="n">
-        <v>678042.2017245395</v>
+        <v>859552.0473390803</v>
       </c>
       <c r="AE7" t="n">
-        <v>927727.2535102944</v>
+        <v>1176077.031929346</v>
       </c>
       <c r="AF7" t="n">
         <v>5.236014241029772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.8287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>839186.2665086491</v>
+        <v>1063833.89063649</v>
       </c>
     </row>
     <row r="8">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>667.8503046200095</v>
+        <v>849.3601502345504</v>
       </c>
       <c r="AB8" t="n">
-        <v>913.7822502571099</v>
+        <v>1162.132028676162</v>
       </c>
       <c r="AC8" t="n">
-        <v>826.5721547940136</v>
+        <v>1051.219778921854</v>
       </c>
       <c r="AD8" t="n">
-        <v>667850.3046200095</v>
+        <v>849360.1502345504</v>
       </c>
       <c r="AE8" t="n">
-        <v>913782.2502571099</v>
+        <v>1162132.028676162</v>
       </c>
       <c r="AF8" t="n">
         <v>5.279506053037562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.52777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>826572.1547940136</v>
+        <v>1051219.778921854</v>
       </c>
     </row>
     <row r="9">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>662.0368557549216</v>
+        <v>843.4452161429771</v>
       </c>
       <c r="AB9" t="n">
-        <v>905.8280330486335</v>
+        <v>1154.038954903596</v>
       </c>
       <c r="AC9" t="n">
-        <v>819.3770769121002</v>
+        <v>1043.899096751442</v>
       </c>
       <c r="AD9" t="n">
-        <v>662036.8557549216</v>
+        <v>843445.2161429771</v>
       </c>
       <c r="AE9" t="n">
-        <v>905828.0330486335</v>
+        <v>1154038.954903596</v>
       </c>
       <c r="AF9" t="n">
         <v>5.293670053116727e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.43518518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>819377.0769121002</v>
+        <v>1043899.096751442</v>
       </c>
     </row>
     <row r="10">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>661.5659167510586</v>
+        <v>842.9742771391142</v>
       </c>
       <c r="AB10" t="n">
-        <v>905.1836735271855</v>
+        <v>1153.394595382148</v>
       </c>
       <c r="AC10" t="n">
-        <v>818.7942141590149</v>
+        <v>1043.316233998357</v>
       </c>
       <c r="AD10" t="n">
-        <v>661565.9167510585</v>
+        <v>842974.2771391142</v>
       </c>
       <c r="AE10" t="n">
-        <v>905183.6735271856</v>
+        <v>1153394.595382148</v>
       </c>
       <c r="AF10" t="n">
         <v>5.302501723754324e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.37731481481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>818794.214159015</v>
+        <v>1043316.233998357</v>
       </c>
     </row>
   </sheetData>
